--- a/dataExcel/【格洛克 18 型（StatTrak™） _ 城里的月光 (崭新出厂)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【格洛克 18 型（StatTrak™） _ 城里的月光 (崭新出厂)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,39 +422,39 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-15 00:02:06</v>
+        <v>2023-09-17 19:23:46</v>
       </c>
       <c r="B8">
-        <v>28.31</v>
+        <v>28.09</v>
       </c>
       <c r="C8">
-        <v>37.08</v>
+        <v>39.86</v>
       </c>
       <c r="D8">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E8">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="F8">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-15 03:41:16</v>
+        <v>2023-09-17 23:06:34</v>
       </c>
       <c r="B9">
-        <v>28.1</v>
+        <v>27.89</v>
       </c>
       <c r="C9">
-        <v>39.88</v>
+        <v>39.86</v>
       </c>
       <c r="D9">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="E9">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>153</v>
@@ -462,1859 +462,1859 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-15 07:23:20</v>
+        <v>2023-09-18 02:49:54</v>
       </c>
       <c r="B10">
-        <v>27.99</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>38.86</v>
+        <v>39.06</v>
       </c>
       <c r="D10">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="E10">
-        <v>26.9</v>
+        <v>26.1</v>
       </c>
       <c r="F10">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-15 11:01:07</v>
+        <v>2023-09-18 06:33:06</v>
       </c>
       <c r="B11">
-        <v>28.09</v>
+        <v>28.39</v>
       </c>
       <c r="C11">
-        <v>39.36</v>
+        <v>39.35</v>
       </c>
       <c r="D11">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E11">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="F11">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-16 06:12:59</v>
+        <v>2023-09-18 10:13:07</v>
       </c>
       <c r="B12">
         <v>28.62</v>
       </c>
       <c r="C12">
-        <v>39.36</v>
+        <v>37.24</v>
       </c>
       <c r="D12">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E12">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-16 10:14:37</v>
+        <v>2023-09-18 13:53:34</v>
       </c>
       <c r="B13">
-        <v>28.62</v>
+        <v>28.11</v>
       </c>
       <c r="C13">
-        <v>38.47</v>
+        <v>39.72</v>
       </c>
       <c r="D13">
         <v>716</v>
       </c>
       <c r="E13">
-        <v>26.8</v>
+        <v>26.1</v>
       </c>
       <c r="F13">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-16 13:48:41</v>
+        <v>2023-09-18 17:28:57</v>
       </c>
       <c r="B14">
-        <v>28.62</v>
+        <v>28.5</v>
       </c>
       <c r="C14">
-        <v>39.36</v>
+        <v>35.13</v>
       </c>
       <c r="D14">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="E14">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="F14">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-16 17:46:23</v>
+        <v>2023-09-18 21:07:42</v>
       </c>
       <c r="B15">
-        <v>27.8</v>
+        <v>28.52</v>
       </c>
       <c r="C15">
-        <v>39.36</v>
+        <v>39.72</v>
       </c>
       <c r="D15">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="E15">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F15">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-16 21:23:12</v>
+        <v>2023-09-19 00:46:29</v>
       </c>
       <c r="B16">
-        <v>28.42</v>
+        <v>28.62</v>
       </c>
       <c r="C16">
-        <v>36.15</v>
+        <v>39.94</v>
       </c>
       <c r="D16">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="E16">
-        <v>25.3</v>
+        <v>27.3</v>
       </c>
       <c r="F16">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-17 01:07:56</v>
+        <v>2023-09-19 04:19:29</v>
       </c>
       <c r="B17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
-        <v>39.5</v>
+        <v>39.09</v>
       </c>
       <c r="D17">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="E17">
-        <v>25.7</v>
+        <v>27.3</v>
       </c>
       <c r="F17">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-17 04:43:16</v>
+        <v>2023-09-19 07:57:17</v>
       </c>
       <c r="B18">
-        <v>28.59</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>39.57</v>
+        <v>40.03</v>
       </c>
       <c r="D18">
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="E18">
-        <v>26.1</v>
+        <v>27.4</v>
       </c>
       <c r="F18">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-17 08:27:09</v>
+        <v>2023-09-19 11:36:14</v>
       </c>
       <c r="B19">
-        <v>28.59</v>
+        <v>28.99</v>
       </c>
       <c r="C19">
-        <v>39.28</v>
+        <v>39.38</v>
       </c>
       <c r="D19">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="E19">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="F19">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-17 12:11:26</v>
+        <v>2023-09-19 15:15:36</v>
       </c>
       <c r="B20">
-        <v>28.49</v>
+        <v>28.9</v>
       </c>
       <c r="C20">
-        <v>39.43</v>
+        <v>40.25</v>
       </c>
       <c r="D20">
-        <v>719</v>
+        <v>692</v>
       </c>
       <c r="E20">
-        <v>26</v>
+        <v>27.4</v>
       </c>
       <c r="F20">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-17 15:47:16</v>
+        <v>2023-09-19 15:21:04</v>
       </c>
       <c r="B21">
-        <v>28.09</v>
+        <v>28.9</v>
       </c>
       <c r="C21">
-        <v>39.43</v>
+        <v>40.25</v>
       </c>
       <c r="D21">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="E21">
-        <v>25.2</v>
+        <v>27.4</v>
       </c>
       <c r="F21">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-17 19:23:46</v>
+        <v>2023-09-19 19:00:12</v>
       </c>
       <c r="B22">
-        <v>28.09</v>
+        <v>28.45</v>
       </c>
       <c r="C22">
-        <v>39.86</v>
+        <v>37.99</v>
       </c>
       <c r="D22">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="E22">
-        <v>25.6</v>
+        <v>27.4</v>
       </c>
       <c r="F22">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-17 23:06:34</v>
+        <v>2023-09-19 22:44:20</v>
       </c>
       <c r="B23">
-        <v>27.89</v>
+        <v>27.85</v>
       </c>
       <c r="C23">
-        <v>39.86</v>
+        <v>40.03</v>
       </c>
       <c r="D23">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="F23">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-18 02:49:54</v>
+        <v>2023-09-20 02:23:34</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>28.34</v>
       </c>
       <c r="C24">
-        <v>39.06</v>
+        <v>40.25</v>
       </c>
       <c r="D24">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="E24">
-        <v>26.1</v>
+        <v>26.7</v>
       </c>
       <c r="F24">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-18 06:33:06</v>
+        <v>2023-09-20 05:58:49</v>
       </c>
       <c r="B25">
-        <v>28.39</v>
+        <v>28.89</v>
       </c>
       <c r="C25">
-        <v>39.35</v>
+        <v>40.28</v>
       </c>
       <c r="D25">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="E25">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="F25">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-18 10:13:07</v>
+        <v>2023-09-20 09:37:59</v>
       </c>
       <c r="B26">
-        <v>28.62</v>
+        <v>28.58</v>
       </c>
       <c r="C26">
-        <v>37.24</v>
+        <v>40.28</v>
       </c>
       <c r="D26">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="E26">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="F26">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-18 13:53:34</v>
+        <v>2023-09-20 13:14:52</v>
       </c>
       <c r="B27">
-        <v>28.11</v>
+        <v>27.85</v>
       </c>
       <c r="C27">
-        <v>39.72</v>
+        <v>39.92</v>
       </c>
       <c r="D27">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="E27">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="F27">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-18 17:28:57</v>
+        <v>2023-09-20 16:54:55</v>
       </c>
       <c r="B28">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
       <c r="C28">
-        <v>35.13</v>
+        <v>39.99</v>
       </c>
       <c r="D28">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E28">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F28">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-18 21:07:42</v>
+        <v>2023-09-20 20:39:37</v>
       </c>
       <c r="B29">
-        <v>28.52</v>
+        <v>27.4</v>
       </c>
       <c r="C29">
-        <v>39.72</v>
+        <v>40.06</v>
       </c>
       <c r="D29">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E29">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F29">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-19 00:46:29</v>
+        <v>2023-09-21 00:17:19</v>
       </c>
       <c r="B30">
-        <v>28.62</v>
+        <v>28.59</v>
       </c>
       <c r="C30">
-        <v>39.94</v>
+        <v>40.06</v>
       </c>
       <c r="D30">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E30">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="F30">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-19 04:19:29</v>
+        <v>2023-09-21 03:56:13</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>28.49</v>
       </c>
       <c r="C31">
-        <v>39.09</v>
+        <v>39.99</v>
       </c>
       <c r="D31">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E31">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="F31">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-19 07:57:17</v>
+        <v>2023-09-21 04:00:26</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>28.49</v>
       </c>
       <c r="C32">
-        <v>40.03</v>
+        <v>39.99</v>
       </c>
       <c r="D32">
         <v>697</v>
       </c>
       <c r="E32">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="F32">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-19 11:36:14</v>
+        <v>2023-09-21 07:31:56</v>
       </c>
       <c r="B33">
-        <v>28.99</v>
+        <v>28.49</v>
       </c>
       <c r="C33">
-        <v>39.38</v>
+        <v>40.01</v>
       </c>
       <c r="D33">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E33">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="F33">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-19 15:15:36</v>
+        <v>2023-09-21 07:37:38</v>
       </c>
       <c r="B34">
-        <v>28.9</v>
+        <v>28.49</v>
       </c>
       <c r="C34">
-        <v>40.25</v>
+        <v>40.01</v>
       </c>
       <c r="D34">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="E34">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="F34">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-19 15:21:04</v>
+        <v>2023-09-21 11:16:06</v>
       </c>
       <c r="B35">
-        <v>28.9</v>
+        <v>27.7</v>
       </c>
       <c r="C35">
-        <v>40.25</v>
+        <v>40.22</v>
       </c>
       <c r="D35">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="E35">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="F35">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-19 19:00:12</v>
+        <v>2023-09-21 14:53:39</v>
       </c>
       <c r="B36">
-        <v>28.45</v>
+        <v>27.7</v>
       </c>
       <c r="C36">
-        <v>37.99</v>
+        <v>39.86</v>
       </c>
       <c r="D36">
         <v>700</v>
       </c>
       <c r="E36">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="F36">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-19 22:44:20</v>
+        <v>2023-09-21 18:34:11</v>
       </c>
       <c r="B37">
-        <v>27.85</v>
+        <v>27.5</v>
       </c>
       <c r="C37">
-        <v>40.03</v>
+        <v>39.06</v>
       </c>
       <c r="D37">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E37">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F37">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-20 02:23:34</v>
+        <v>2023-09-21 22:16:00</v>
       </c>
       <c r="B38">
-        <v>28.34</v>
+        <v>27.4</v>
       </c>
       <c r="C38">
-        <v>40.25</v>
+        <v>36.44</v>
       </c>
       <c r="D38">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="E38">
         <v>26.7</v>
       </c>
       <c r="F38">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-20 05:58:49</v>
+        <v>2023-09-22 01:53:23</v>
       </c>
       <c r="B39">
-        <v>28.89</v>
+        <v>28.4</v>
       </c>
       <c r="C39">
-        <v>40.28</v>
+        <v>36.86</v>
       </c>
       <c r="D39">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E39">
-        <v>26.8</v>
+        <v>25.4</v>
       </c>
       <c r="F39">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-20 09:37:59</v>
+        <v>2023-09-22 05:33:35</v>
       </c>
       <c r="B40">
-        <v>28.58</v>
+        <v>28.4</v>
       </c>
       <c r="C40">
-        <v>40.28</v>
+        <v>39.83</v>
       </c>
       <c r="D40">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E40">
-        <v>27</v>
+        <v>25.1</v>
       </c>
       <c r="F40">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-20 13:14:52</v>
+        <v>2023-09-22 09:09:57</v>
       </c>
       <c r="B41">
-        <v>27.85</v>
+        <v>27.9</v>
       </c>
       <c r="C41">
-        <v>39.92</v>
+        <v>39.02</v>
       </c>
       <c r="D41">
         <v>701</v>
       </c>
       <c r="E41">
-        <v>27</v>
+        <v>25.1</v>
       </c>
       <c r="F41">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-20 16:54:55</v>
+        <v>2023-09-22 12:48:48</v>
       </c>
       <c r="B42">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="C42">
-        <v>39.99</v>
+        <v>39.75</v>
       </c>
       <c r="D42">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E42">
-        <v>26.8</v>
+        <v>25.1</v>
       </c>
       <c r="F42">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-20 20:39:37</v>
+        <v>2023-09-22 16:26:48</v>
       </c>
       <c r="B43">
-        <v>27.4</v>
+        <v>27.55</v>
       </c>
       <c r="C43">
-        <v>40.06</v>
+        <v>39.54</v>
       </c>
       <c r="D43">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E43">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="F43">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-21 00:17:19</v>
+        <v>2023-09-22 20:02:09</v>
       </c>
       <c r="B44">
-        <v>28.59</v>
+        <v>27.35</v>
       </c>
       <c r="C44">
-        <v>40.06</v>
+        <v>39.24</v>
       </c>
       <c r="D44">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="E44">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="F44">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-21 03:56:13</v>
+        <v>2023-09-22 23:44:37</v>
       </c>
       <c r="B45">
-        <v>28.49</v>
+        <v>27.05</v>
       </c>
       <c r="C45">
-        <v>39.99</v>
+        <v>37.42</v>
       </c>
       <c r="D45">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="E45">
-        <v>26.7</v>
+        <v>25.7</v>
       </c>
       <c r="F45">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-21 04:00:26</v>
+        <v>2023-09-23 03:23:16</v>
       </c>
       <c r="B46">
-        <v>28.49</v>
+        <v>28.58</v>
       </c>
       <c r="C46">
-        <v>39.99</v>
+        <v>39.04</v>
       </c>
       <c r="D46">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="E46">
-        <v>26.7</v>
+        <v>26</v>
       </c>
       <c r="F46">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-21 07:31:56</v>
+        <v>2023-09-23 07:05:07</v>
       </c>
       <c r="B47">
-        <v>28.49</v>
+        <v>28.48</v>
       </c>
       <c r="C47">
-        <v>40.01</v>
+        <v>39.7</v>
       </c>
       <c r="D47">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="E47">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="F47">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-21 07:37:38</v>
+        <v>2023-09-23 10:46:28</v>
       </c>
       <c r="B48">
-        <v>28.49</v>
+        <v>28.26</v>
       </c>
       <c r="C48">
-        <v>40.01</v>
+        <v>39.7</v>
       </c>
       <c r="D48">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="E48">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="F48">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-21 11:16:06</v>
+        <v>2023-09-23 14:27:35</v>
       </c>
       <c r="B49">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C49">
-        <v>40.22</v>
+        <v>38.39</v>
       </c>
       <c r="D49">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E49">
-        <v>26.7</v>
+        <v>26</v>
       </c>
       <c r="F49">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-21 14:53:39</v>
+        <v>2023-09-23 18:04:57</v>
       </c>
       <c r="B50">
-        <v>27.7</v>
+        <v>27.97</v>
       </c>
       <c r="C50">
-        <v>39.86</v>
+        <v>38.9</v>
       </c>
       <c r="D50">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="E50">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F50">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-21 18:34:11</v>
+        <v>2023-09-23 21:41:32</v>
       </c>
       <c r="B51">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C51">
-        <v>39.06</v>
+        <v>38.83</v>
       </c>
       <c r="D51">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="E51">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="F51">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-21 22:16:00</v>
+        <v>2023-09-24 01:19:07</v>
       </c>
       <c r="B52">
-        <v>27.4</v>
+        <v>27.09</v>
       </c>
       <c r="C52">
-        <v>36.44</v>
+        <v>39.7</v>
       </c>
       <c r="D52">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="E52">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="F52">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-22 01:53:23</v>
+        <v>2023-09-24 04:57:56</v>
       </c>
       <c r="B53">
-        <v>28.4</v>
+        <v>27.09</v>
       </c>
       <c r="C53">
-        <v>36.86</v>
+        <v>39.99</v>
       </c>
       <c r="D53">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="E53">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="F53">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-22 05:33:35</v>
+        <v>2023-09-24 05:03:24</v>
       </c>
       <c r="B54">
-        <v>28.4</v>
+        <v>27.09</v>
       </c>
       <c r="C54">
-        <v>39.83</v>
+        <v>39.99</v>
       </c>
       <c r="D54">
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="E54">
-        <v>25.1</v>
+        <v>25.9</v>
       </c>
       <c r="F54">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-22 09:09:57</v>
+        <v>2023-09-24 08:42:11</v>
       </c>
       <c r="B55">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="C55">
-        <v>39.02</v>
+        <v>39.04</v>
       </c>
       <c r="D55">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="E55">
-        <v>25.1</v>
+        <v>26.1</v>
       </c>
       <c r="F55">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-22 12:48:48</v>
+        <v>2023-09-24 12:22:16</v>
       </c>
       <c r="B56">
-        <v>27</v>
+        <v>27.03</v>
       </c>
       <c r="C56">
-        <v>39.75</v>
+        <v>38.31</v>
       </c>
       <c r="D56">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="E56">
-        <v>25.1</v>
+        <v>26.1</v>
       </c>
       <c r="F56">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-22 16:26:48</v>
+        <v>2023-09-24 15:59:42</v>
       </c>
       <c r="B57">
-        <v>27.55</v>
+        <v>27.08</v>
       </c>
       <c r="C57">
-        <v>39.54</v>
+        <v>39.9</v>
       </c>
       <c r="D57">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="E57">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F57">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-22 20:02:09</v>
+        <v>2023-09-24 19:38:57</v>
       </c>
       <c r="B58">
-        <v>27.35</v>
+        <v>27.09</v>
       </c>
       <c r="C58">
-        <v>39.24</v>
+        <v>39.11</v>
       </c>
       <c r="D58">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E58">
-        <v>25.6</v>
+        <v>26.2</v>
       </c>
       <c r="F58">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-22 23:44:37</v>
+        <v>2023-09-24 23:14:50</v>
       </c>
       <c r="B59">
-        <v>27.05</v>
+        <v>27.67</v>
       </c>
       <c r="C59">
-        <v>37.42</v>
+        <v>38.67</v>
       </c>
       <c r="D59">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="E59">
-        <v>25.7</v>
+        <v>26.3</v>
       </c>
       <c r="F59">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-23 03:23:16</v>
+        <v>2023-09-25 02:56:21</v>
       </c>
       <c r="B60">
-        <v>28.58</v>
+        <v>27.57</v>
       </c>
       <c r="C60">
-        <v>39.04</v>
+        <v>39.18</v>
       </c>
       <c r="D60">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E60">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F60">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-23 07:05:07</v>
+        <v>2023-09-25 06:36:08</v>
       </c>
       <c r="B61">
-        <v>28.48</v>
+        <v>27.47</v>
       </c>
       <c r="C61">
-        <v>39.7</v>
+        <v>38.02</v>
       </c>
       <c r="D61">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="E61">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="F61">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-23 10:46:28</v>
+        <v>2023-09-25 10:13:33</v>
       </c>
       <c r="B62">
-        <v>28.26</v>
+        <v>27.47</v>
       </c>
       <c r="C62">
-        <v>39.7</v>
+        <v>39.77</v>
       </c>
       <c r="D62">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E62">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="F62">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-23 14:27:35</v>
+        <v>2023-09-25 13:56:53</v>
       </c>
       <c r="B63">
-        <v>28</v>
+        <v>27.77</v>
       </c>
       <c r="C63">
-        <v>38.39</v>
+        <v>39.04</v>
       </c>
       <c r="D63">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E63">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="F63">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-23 18:04:57</v>
+        <v>2023-09-25 17:36:00</v>
       </c>
       <c r="B64">
-        <v>27.97</v>
+        <v>27.49</v>
       </c>
       <c r="C64">
-        <v>38.9</v>
+        <v>37.21</v>
       </c>
       <c r="D64">
         <v>715</v>
       </c>
       <c r="E64">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F64">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-23 21:41:32</v>
+        <v>2023-09-25 21:17:12</v>
       </c>
       <c r="B65">
-        <v>27.3</v>
+        <v>26.98</v>
       </c>
       <c r="C65">
-        <v>38.83</v>
+        <v>35.68</v>
       </c>
       <c r="D65">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E65">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="F65">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-24 01:19:07</v>
+        <v>2023-09-26 00:55:56</v>
       </c>
       <c r="B66">
-        <v>27.09</v>
+        <v>27.5</v>
       </c>
       <c r="C66">
-        <v>39.7</v>
+        <v>39.77</v>
       </c>
       <c r="D66">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E66">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="F66">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-24 04:57:56</v>
+        <v>2023-09-26 04:36:12</v>
       </c>
       <c r="B67">
-        <v>27.09</v>
+        <v>28.25</v>
       </c>
       <c r="C67">
-        <v>39.99</v>
+        <v>39.85</v>
       </c>
       <c r="D67">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="E67">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="F67">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-24 05:03:24</v>
+        <v>2023-09-26 08:14:22</v>
       </c>
       <c r="B68">
-        <v>27.09</v>
+        <v>28.17</v>
       </c>
       <c r="C68">
-        <v>39.99</v>
+        <v>39.78</v>
       </c>
       <c r="D68">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="E68">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="F68">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-24 08:42:11</v>
+        <v>2023-09-26 11:51:38</v>
       </c>
       <c r="B69">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
-        <v>39.04</v>
+        <v>39.27</v>
       </c>
       <c r="D69">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="E69">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="F69">
-        <v>145</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-24 12:22:16</v>
+        <v>2023-09-26 15:30:16</v>
       </c>
       <c r="B70">
-        <v>27.03</v>
+        <v>28.12</v>
       </c>
       <c r="C70">
-        <v>38.31</v>
+        <v>39.27</v>
       </c>
       <c r="D70">
         <v>717</v>
       </c>
       <c r="E70">
-        <v>26.1</v>
+        <v>26.7</v>
       </c>
       <c r="F70">
-        <v>145</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-24 15:59:42</v>
+        <v>2023-09-26 19:07:46</v>
       </c>
       <c r="B71">
-        <v>27.08</v>
+        <v>27.7</v>
       </c>
       <c r="C71">
-        <v>39.9</v>
+        <v>37.51</v>
       </c>
       <c r="D71">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="E71">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F71">
-        <v>139</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-24 19:38:57</v>
+        <v>2023-09-26 22:46:09</v>
       </c>
       <c r="B72">
-        <v>27.09</v>
+        <v>27.6</v>
       </c>
       <c r="C72">
-        <v>39.11</v>
+        <v>36.78</v>
       </c>
       <c r="D72">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E72">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F72">
-        <v>139</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-24 23:14:50</v>
+        <v>2023-09-27 02:29:30</v>
       </c>
       <c r="B73">
-        <v>27.67</v>
+        <v>27.6</v>
       </c>
       <c r="C73">
-        <v>38.67</v>
+        <v>38.75</v>
       </c>
       <c r="D73">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E73">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F73">
-        <v>136</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-25 02:56:21</v>
+        <v>2023-09-27 02:34:17</v>
       </c>
       <c r="B74">
-        <v>27.57</v>
+        <v>27.6</v>
       </c>
       <c r="C74">
-        <v>39.18</v>
+        <v>38.75</v>
       </c>
       <c r="D74">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E74">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="F74">
-        <v>135</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-25 06:36:08</v>
+        <v>2023-09-27 06:15:48</v>
       </c>
       <c r="B75">
-        <v>27.47</v>
+        <v>27.6</v>
       </c>
       <c r="C75">
-        <v>38.02</v>
+        <v>39.77</v>
       </c>
       <c r="D75">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E75">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="F75">
-        <v>135</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-25 10:13:33</v>
+        <v>2023-09-27 09:54:02</v>
       </c>
       <c r="B76">
-        <v>27.47</v>
+        <v>27.3</v>
       </c>
       <c r="C76">
-        <v>39.77</v>
+        <v>39.11</v>
       </c>
       <c r="D76">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E76">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="F76">
-        <v>134</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-25 13:56:53</v>
+        <v>2023-09-27 13:30:31</v>
       </c>
       <c r="B77">
-        <v>27.77</v>
+        <v>27.51</v>
       </c>
       <c r="C77">
-        <v>39.04</v>
+        <v>38.75</v>
       </c>
       <c r="D77">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="E77">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="F77">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-25 17:36:00</v>
+        <v>2023-09-27 17:06:20</v>
       </c>
       <c r="B78">
-        <v>27.49</v>
+        <v>27.11</v>
       </c>
       <c r="C78">
-        <v>37.21</v>
+        <v>38.75</v>
       </c>
       <c r="D78">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="E78">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F78">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-25 21:17:12</v>
+        <v>2023-09-27 20:46:26</v>
       </c>
       <c r="B79">
-        <v>26.98</v>
+        <v>26.71</v>
       </c>
       <c r="C79">
-        <v>35.68</v>
+        <v>38.75</v>
       </c>
       <c r="D79">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="E79">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F79">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-26 00:55:56</v>
+        <v>2023-09-28 00:25:39</v>
       </c>
       <c r="B80">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="C80">
-        <v>39.77</v>
+        <v>36.56</v>
       </c>
       <c r="D80">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="E80">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F80">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-26 04:36:12</v>
+        <v>2023-09-28 04:07:24</v>
       </c>
       <c r="B81">
-        <v>28.25</v>
+        <v>27</v>
       </c>
       <c r="C81">
-        <v>39.85</v>
+        <v>38.38</v>
       </c>
       <c r="D81">
-        <v>707</v>
+        <v>732</v>
       </c>
       <c r="E81">
-        <v>26.5</v>
+        <v>24.9</v>
       </c>
       <c r="F81">
-        <v>147</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-26 08:14:22</v>
+        <v>2023-09-28 07:46:33</v>
       </c>
       <c r="B82">
-        <v>28.17</v>
+        <v>27</v>
       </c>
       <c r="C82">
-        <v>39.78</v>
+        <v>40.06</v>
       </c>
       <c r="D82">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="E82">
-        <v>26.5</v>
+        <v>25.2</v>
       </c>
       <c r="F82">
-        <v>147</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-26 11:51:38</v>
+        <v>2023-09-28 11:26:13</v>
       </c>
       <c r="B83">
-        <v>28</v>
+        <v>26.88</v>
       </c>
       <c r="C83">
-        <v>39.27</v>
+        <v>39.7</v>
       </c>
       <c r="D83">
-        <v>707</v>
+        <v>734</v>
       </c>
       <c r="E83">
-        <v>26.6</v>
+        <v>25.2</v>
       </c>
       <c r="F83">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-26 15:30:16</v>
+        <v>2023-09-28 15:04:43</v>
       </c>
       <c r="B84">
-        <v>28.12</v>
+        <v>26</v>
       </c>
       <c r="C84">
-        <v>39.27</v>
+        <v>38.75</v>
       </c>
       <c r="D84">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="E84">
-        <v>26.7</v>
+        <v>25.2</v>
       </c>
       <c r="F84">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-26 19:07:46</v>
+        <v>2023-09-28 18:46:14</v>
       </c>
       <c r="B85">
-        <v>27.7</v>
+        <v>26.68</v>
       </c>
       <c r="C85">
-        <v>37.51</v>
+        <v>40.13</v>
       </c>
       <c r="D85">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="E85">
-        <v>26.5</v>
+        <v>24.9</v>
       </c>
       <c r="F85">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-26 22:46:09</v>
+        <v>2023-09-28 22:26:10</v>
       </c>
       <c r="B86">
-        <v>27.6</v>
+        <v>26.68</v>
       </c>
       <c r="C86">
-        <v>36.78</v>
+        <v>39.47</v>
       </c>
       <c r="D86">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="E86">
-        <v>26.5</v>
+        <v>24.9</v>
       </c>
       <c r="F86">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-27 02:29:30</v>
+        <v>2023-09-29 02:02:08</v>
       </c>
       <c r="B87">
-        <v>27.6</v>
+        <v>25</v>
       </c>
       <c r="C87">
-        <v>38.75</v>
+        <v>39.47</v>
       </c>
       <c r="D87">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="E87">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="F87">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-27 02:34:17</v>
+        <v>2023-09-29 05:38:27</v>
       </c>
       <c r="B88">
-        <v>27.6</v>
+        <v>26.58</v>
       </c>
       <c r="C88">
-        <v>38.75</v>
+        <v>39.79</v>
       </c>
       <c r="D88">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="E88">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="F88">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-27 06:15:48</v>
+        <v>2023-09-29 09:16:05</v>
       </c>
       <c r="B89">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C89">
-        <v>39.77</v>
+        <v>39.79</v>
       </c>
       <c r="D89">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="E89">
-        <v>26.6</v>
+        <v>23.5</v>
       </c>
       <c r="F89">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-27 09:54:02</v>
+        <v>2023-09-29 12:57:19</v>
       </c>
       <c r="B90">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="C90">
-        <v>39.11</v>
+        <v>39.42</v>
       </c>
       <c r="D90">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="E90">
-        <v>26.6</v>
+        <v>23.6</v>
       </c>
       <c r="F90">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-27 13:30:31</v>
+        <v>2023-09-29 16:38:30</v>
       </c>
       <c r="B91">
-        <v>27.51</v>
+        <v>26.7</v>
       </c>
       <c r="C91">
-        <v>38.75</v>
+        <v>39.79</v>
       </c>
       <c r="D91">
-        <v>719</v>
+        <v>756</v>
       </c>
       <c r="E91">
-        <v>26.7</v>
+        <v>23.6</v>
       </c>
       <c r="F91">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-27 17:06:20</v>
+        <v>2023-09-29 20:18:38</v>
       </c>
       <c r="B92">
-        <v>27.11</v>
+        <v>26.7</v>
       </c>
       <c r="C92">
-        <v>38.75</v>
+        <v>39.64</v>
       </c>
       <c r="D92">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="E92">
-        <v>26</v>
+        <v>23.6</v>
       </c>
       <c r="F92">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-27 20:46:26</v>
+        <v>2023-09-29 23:57:23</v>
       </c>
       <c r="B93">
-        <v>26.71</v>
+        <v>27</v>
       </c>
       <c r="C93">
-        <v>38.75</v>
+        <v>40.08</v>
       </c>
       <c r="D93">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="E93">
-        <v>26</v>
+        <v>23.6</v>
       </c>
       <c r="F93">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-28 00:25:39</v>
+        <v>2023-09-30 03:29:19</v>
       </c>
       <c r="B94">
+        <v>26.9</v>
+      </c>
+      <c r="C94">
+        <v>35.4</v>
+      </c>
+      <c r="D94">
+        <v>748</v>
+      </c>
+      <c r="E94">
+        <v>23.5</v>
+      </c>
+      <c r="F94">
         <v>27</v>
-      </c>
-      <c r="C94">
-        <v>36.56</v>
-      </c>
-      <c r="D94">
-        <v>735</v>
-      </c>
-      <c r="E94">
-        <v>26</v>
-      </c>
-      <c r="F94">
-        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-28 04:07:24</v>
+        <v>2023-09-30 07:06:25</v>
       </c>
       <c r="B95">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C95">
-        <v>38.38</v>
+        <v>38.74</v>
       </c>
       <c r="D95">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="E95">
-        <v>24.9</v>
+        <v>23.6</v>
       </c>
       <c r="F95">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-28 07:46:33</v>
+        <v>2023-09-30 07:12:27</v>
       </c>
       <c r="B96">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C96">
-        <v>40.06</v>
+        <v>38.74</v>
       </c>
       <c r="D96">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="E96">
-        <v>25.2</v>
+        <v>23.6</v>
       </c>
       <c r="F96">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-28 11:26:13</v>
+        <v>2023-09-30 10:52:16</v>
       </c>
       <c r="B97">
-        <v>26.88</v>
+        <v>28</v>
       </c>
       <c r="C97">
-        <v>39.7</v>
+        <v>39.76</v>
       </c>
       <c r="D97">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="E97">
-        <v>25.2</v>
+        <v>23.5</v>
       </c>
       <c r="F97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-28 15:04:43</v>
+        <v>2023-09-30 14:31:25</v>
       </c>
       <c r="B98">
-        <v>26</v>
+        <v>27.8</v>
       </c>
       <c r="C98">
-        <v>38.75</v>
+        <v>39.83</v>
       </c>
       <c r="D98">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="E98">
-        <v>25.2</v>
+        <v>23.5</v>
       </c>
       <c r="F98">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-28 18:46:14</v>
+        <v>2023-09-30 18:13:30</v>
       </c>
       <c r="B99">
-        <v>26.68</v>
+        <v>26.7</v>
       </c>
       <c r="C99">
-        <v>40.13</v>
+        <v>41.95</v>
       </c>
       <c r="D99">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="E99">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="F99">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-28 22:26:10</v>
+        <v>2023-09-30 21:53:38</v>
       </c>
       <c r="B100">
-        <v>26.68</v>
+        <v>25.5</v>
       </c>
       <c r="C100">
-        <v>39.47</v>
+        <v>41.95</v>
       </c>
       <c r="D100">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="E100">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="F100">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-29 02:02:08</v>
+        <v>2023-10-01 01:34:11</v>
       </c>
       <c r="B101">
+        <v>26</v>
+      </c>
+      <c r="C101">
+        <v>40.64</v>
+      </c>
+      <c r="D101">
+        <v>765</v>
+      </c>
+      <c r="E101">
+        <v>23.6</v>
+      </c>
+      <c r="F101">
         <v>25</v>
-      </c>
-      <c r="C101">
-        <v>39.47</v>
-      </c>
-      <c r="D101">
-        <v>737</v>
-      </c>
-      <c r="E101">
-        <v>24.9</v>
-      </c>
-      <c r="F101">
-        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-29 05:38:27</v>
+        <v>2023-10-01 05:12:49</v>
       </c>
       <c r="B102">
-        <v>26.58</v>
+        <v>26</v>
       </c>
       <c r="C102">
-        <v>39.79</v>
+        <v>44.43</v>
       </c>
       <c r="D102">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="E102">
-        <v>24.9</v>
+        <v>18.7</v>
       </c>
       <c r="F102">
         <v>29</v>
@@ -2322,1039 +2322,1039 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-29 09:16:05</v>
+        <v>2023-10-01 08:51:11</v>
       </c>
       <c r="B103">
-        <v>26.4</v>
+        <v>26.89</v>
       </c>
       <c r="C103">
-        <v>39.79</v>
+        <v>46.76</v>
       </c>
       <c r="D103">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="E103">
-        <v>23.5</v>
+        <v>22.1</v>
       </c>
       <c r="F103">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-09-29 12:57:19</v>
+        <v>2023-10-01 12:32:45</v>
       </c>
       <c r="B104">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="C104">
-        <v>39.42</v>
+        <v>43.84</v>
       </c>
       <c r="D104">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="E104">
-        <v>23.6</v>
+        <v>22.9</v>
       </c>
       <c r="F104">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-09-29 16:38:30</v>
+        <v>2023-10-01 16:11:34</v>
       </c>
       <c r="B105">
-        <v>26.7</v>
+        <v>27.59</v>
       </c>
       <c r="C105">
-        <v>39.79</v>
+        <v>48.15</v>
       </c>
       <c r="D105">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="E105">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="F105">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-09-29 20:18:38</v>
+        <v>2023-10-01 19:54:14</v>
       </c>
       <c r="B106">
-        <v>26.7</v>
+        <v>28.28</v>
       </c>
       <c r="C106">
-        <v>39.64</v>
+        <v>46.18</v>
       </c>
       <c r="D106">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E106">
-        <v>23.6</v>
+        <v>25.2</v>
       </c>
       <c r="F106">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-09-29 23:57:23</v>
+        <v>2023-10-01 23:31:20</v>
       </c>
       <c r="B107">
-        <v>27</v>
+        <v>27.9</v>
       </c>
       <c r="C107">
-        <v>40.08</v>
+        <v>43.99</v>
       </c>
       <c r="D107">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="E107">
-        <v>23.6</v>
+        <v>25.3</v>
       </c>
       <c r="F107">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-09-30 03:29:19</v>
+        <v>2023-10-02 03:08:32</v>
       </c>
       <c r="B108">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="C108">
-        <v>35.4</v>
+        <v>43.4</v>
       </c>
       <c r="D108">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E108">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="F108">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-09-30 07:06:25</v>
+        <v>2023-10-02 06:48:20</v>
       </c>
       <c r="B109">
-        <v>26.8</v>
+        <v>28.38</v>
       </c>
       <c r="C109">
-        <v>38.74</v>
+        <v>45.41</v>
       </c>
       <c r="D109">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E109">
-        <v>23.6</v>
+        <v>25.3</v>
       </c>
       <c r="F109">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-09-30 07:12:27</v>
+        <v>2023-10-02 10:26:11</v>
       </c>
       <c r="B110">
-        <v>26.8</v>
+        <v>28.59</v>
       </c>
       <c r="C110">
-        <v>38.74</v>
+        <v>51.29</v>
       </c>
       <c r="D110">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="E110">
-        <v>23.6</v>
+        <v>25.4</v>
       </c>
       <c r="F110">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-09-30 10:52:16</v>
+        <v>2023-10-02 14:03:43</v>
       </c>
       <c r="B111">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C111">
-        <v>39.76</v>
+        <v>41.25</v>
       </c>
       <c r="D111">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E111">
-        <v>23.5</v>
+        <v>26.5</v>
       </c>
       <c r="F111">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-09-30 14:31:25</v>
+        <v>2023-10-02 17:41:11</v>
       </c>
       <c r="B112">
-        <v>27.8</v>
+        <v>29.86</v>
       </c>
       <c r="C112">
-        <v>39.83</v>
+        <v>53.23</v>
       </c>
       <c r="D112">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="E112">
-        <v>23.5</v>
+        <v>26.6</v>
       </c>
       <c r="F112">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-09-30 18:13:30</v>
+        <v>2023-10-02 21:18:49</v>
       </c>
       <c r="B113">
-        <v>26.7</v>
+        <v>29.9</v>
       </c>
       <c r="C113">
-        <v>41.95</v>
+        <v>48.71</v>
       </c>
       <c r="D113">
-        <v>767</v>
+        <v>720</v>
       </c>
       <c r="E113">
-        <v>23.5</v>
+        <v>27.1</v>
       </c>
       <c r="F113">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-09-30 21:53:38</v>
+        <v>2023-10-03 00:56:38</v>
       </c>
       <c r="B114">
-        <v>25.5</v>
+        <v>29.7</v>
       </c>
       <c r="C114">
-        <v>41.95</v>
+        <v>45.62</v>
       </c>
       <c r="D114">
-        <v>764</v>
+        <v>722</v>
       </c>
       <c r="E114">
-        <v>23.5</v>
+        <v>27.2</v>
       </c>
       <c r="F114">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-01 01:34:11</v>
+        <v>2023-10-03 04:34:21</v>
       </c>
       <c r="B115">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C115">
-        <v>40.64</v>
+        <v>48.56</v>
       </c>
       <c r="D115">
-        <v>765</v>
+        <v>718</v>
       </c>
       <c r="E115">
-        <v>23.6</v>
+        <v>27.3</v>
       </c>
       <c r="F115">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-01 05:12:49</v>
+        <v>2023-10-03 08:15:42</v>
       </c>
       <c r="B116">
-        <v>26</v>
+        <v>30.8</v>
       </c>
       <c r="C116">
-        <v>44.43</v>
+        <v>48.84</v>
       </c>
       <c r="D116">
-        <v>764</v>
+        <v>717</v>
       </c>
       <c r="E116">
-        <v>18.7</v>
+        <v>27.5</v>
       </c>
       <c r="F116">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-01 08:51:11</v>
+        <v>2023-10-03 11:55:38</v>
       </c>
       <c r="B117">
-        <v>26.89</v>
+        <v>29.9</v>
       </c>
       <c r="C117">
-        <v>46.76</v>
+        <v>48.92</v>
       </c>
       <c r="D117">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="E117">
-        <v>22.1</v>
+        <v>27.4</v>
       </c>
       <c r="F117">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-01 12:32:45</v>
+        <v>2023-10-03 15:36:08</v>
       </c>
       <c r="B118">
-        <v>27.9</v>
+        <v>30.49</v>
       </c>
       <c r="C118">
-        <v>43.84</v>
+        <v>48.13</v>
       </c>
       <c r="D118">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E118">
-        <v>22.9</v>
+        <v>28</v>
       </c>
       <c r="F118">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-01 16:11:34</v>
+        <v>2023-10-03 19:15:40</v>
       </c>
       <c r="B119">
-        <v>27.59</v>
+        <v>30.39</v>
       </c>
       <c r="C119">
-        <v>48.15</v>
+        <v>48.84</v>
       </c>
       <c r="D119">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E119">
-        <v>23.8</v>
+        <v>28.2</v>
       </c>
       <c r="F119">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-01 19:54:14</v>
+        <v>2023-10-03 22:53:24</v>
       </c>
       <c r="B120">
-        <v>28.28</v>
+        <v>30</v>
       </c>
       <c r="C120">
-        <v>46.18</v>
+        <v>49.35</v>
       </c>
       <c r="D120">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="E120">
-        <v>25.2</v>
+        <v>28.2</v>
       </c>
       <c r="F120">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-01 23:31:20</v>
+        <v>2023-10-04 02:33:59</v>
       </c>
       <c r="B121">
-        <v>27.9</v>
+        <v>30.9</v>
       </c>
       <c r="C121">
-        <v>43.99</v>
+        <v>50.57</v>
       </c>
       <c r="D121">
-        <v>754</v>
+        <v>725</v>
       </c>
       <c r="E121">
-        <v>25.3</v>
+        <v>28.4</v>
       </c>
       <c r="F121">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-02 03:08:32</v>
+        <v>2023-10-04 06:12:50</v>
       </c>
       <c r="B122">
-        <v>27.9</v>
+        <v>30.7</v>
       </c>
       <c r="C122">
-        <v>43.4</v>
+        <v>50.02</v>
       </c>
       <c r="D122">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="E122">
-        <v>25</v>
+        <v>28.7</v>
       </c>
       <c r="F122">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-02 06:48:20</v>
+        <v>2023-10-04 09:50:18</v>
       </c>
       <c r="B123">
-        <v>28.38</v>
+        <v>30.9</v>
       </c>
       <c r="C123">
-        <v>45.41</v>
+        <v>49.16</v>
       </c>
       <c r="D123">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="E123">
-        <v>25.3</v>
+        <v>28.7</v>
       </c>
       <c r="F123">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-02 10:26:11</v>
+        <v>2023-10-04 13:27:02</v>
       </c>
       <c r="B124">
-        <v>28.59</v>
+        <v>30.9</v>
       </c>
       <c r="C124">
-        <v>51.29</v>
+        <v>50.31</v>
       </c>
       <c r="D124">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="E124">
-        <v>25.4</v>
+        <v>28.8</v>
       </c>
       <c r="F124">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-02 14:03:43</v>
+        <v>2023-10-04 17:08:07</v>
       </c>
       <c r="B125">
-        <v>27.9</v>
+        <v>29</v>
       </c>
       <c r="C125">
-        <v>41.25</v>
+        <v>49.16</v>
       </c>
       <c r="D125">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="E125">
-        <v>26.5</v>
+        <v>29.5</v>
       </c>
       <c r="F125">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-02 17:41:11</v>
+        <v>2023-10-04 20:47:19</v>
       </c>
       <c r="B126">
-        <v>29.86</v>
+        <v>30.49</v>
       </c>
       <c r="C126">
-        <v>53.23</v>
+        <v>48.87</v>
       </c>
       <c r="D126">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="E126">
-        <v>26.6</v>
+        <v>29.4</v>
       </c>
       <c r="F126">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-02 21:18:49</v>
+        <v>2023-10-05 00:26:04</v>
       </c>
       <c r="B127">
-        <v>29.9</v>
+        <v>30.19</v>
       </c>
       <c r="C127">
-        <v>48.71</v>
+        <v>48.66</v>
       </c>
       <c r="D127">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E127">
-        <v>27.1</v>
+        <v>29.4</v>
       </c>
       <c r="F127">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-03 00:56:38</v>
+        <v>2023-10-05 04:05:05</v>
       </c>
       <c r="B128">
-        <v>29.7</v>
+        <v>30.49</v>
       </c>
       <c r="C128">
-        <v>45.62</v>
+        <v>50.24</v>
       </c>
       <c r="D128">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E128">
-        <v>27.2</v>
+        <v>29.4</v>
       </c>
       <c r="F128">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-03 04:34:21</v>
+        <v>2023-10-05 07:43:09</v>
       </c>
       <c r="B129">
-        <v>30</v>
+        <v>30.8</v>
       </c>
       <c r="C129">
-        <v>48.56</v>
+        <v>50.24</v>
       </c>
       <c r="D129">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E129">
-        <v>27.3</v>
+        <v>29.4</v>
       </c>
       <c r="F129">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-03 08:15:42</v>
+        <v>2023-10-05 11:21:59</v>
       </c>
       <c r="B130">
-        <v>30.8</v>
+        <v>30.57</v>
       </c>
       <c r="C130">
-        <v>48.84</v>
+        <v>48.01</v>
       </c>
       <c r="D130">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="E130">
-        <v>27.5</v>
+        <v>29.4</v>
       </c>
       <c r="F130">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-03 11:55:38</v>
+        <v>2023-10-05 14:59:46</v>
       </c>
       <c r="B131">
-        <v>29.9</v>
+        <v>30.46</v>
       </c>
       <c r="C131">
-        <v>48.92</v>
+        <v>51.32</v>
       </c>
       <c r="D131">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="E131">
-        <v>27.4</v>
+        <v>29.4</v>
       </c>
       <c r="F131">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-03 15:36:08</v>
+        <v>2023-10-05 18:36:56</v>
       </c>
       <c r="B132">
-        <v>30.49</v>
+        <v>30.69</v>
       </c>
       <c r="C132">
-        <v>48.13</v>
+        <v>51.11</v>
       </c>
       <c r="D132">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="E132">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="F132">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-03 19:15:40</v>
+        <v>2023-10-05 22:18:10</v>
       </c>
       <c r="B133">
-        <v>30.39</v>
+        <v>30.96</v>
       </c>
       <c r="C133">
-        <v>48.84</v>
+        <v>50.6</v>
       </c>
       <c r="D133">
-        <v>739</v>
+        <v>712</v>
       </c>
       <c r="E133">
-        <v>28.2</v>
+        <v>29.4</v>
       </c>
       <c r="F133">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-03 22:53:24</v>
+        <v>2023-10-06 01:59:27</v>
       </c>
       <c r="B134">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C134">
-        <v>49.35</v>
+        <v>50.68</v>
       </c>
       <c r="D134">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="E134">
-        <v>28.2</v>
+        <v>29.4</v>
       </c>
       <c r="F134">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-04 02:33:59</v>
+        <v>2023-10-06 02:07:37</v>
       </c>
       <c r="B135">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="C135">
-        <v>50.57</v>
+        <v>50.68</v>
       </c>
       <c r="D135">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="E135">
-        <v>28.4</v>
+        <v>29.4</v>
       </c>
       <c r="F135">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-04 06:12:50</v>
+        <v>2023-10-06 05:45:16</v>
       </c>
       <c r="B136">
-        <v>30.7</v>
+        <v>31.9</v>
       </c>
       <c r="C136">
-        <v>50.02</v>
+        <v>48.1</v>
       </c>
       <c r="D136">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="E136">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="F136">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-04 09:50:18</v>
+        <v>2023-10-06 09:21:57</v>
       </c>
       <c r="B137">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
       <c r="C137">
-        <v>49.16</v>
+        <v>50.62</v>
       </c>
       <c r="D137">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="E137">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="F137">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-04 13:27:02</v>
+        <v>2023-10-06 12:57:28</v>
       </c>
       <c r="B138">
-        <v>30.9</v>
+        <v>29.8</v>
       </c>
       <c r="C138">
-        <v>50.31</v>
+        <v>50.76</v>
       </c>
       <c r="D138">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="E138">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="F138">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-04 17:08:07</v>
+        <v>2023-10-06 16:35:32</v>
       </c>
       <c r="B139">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="C139">
-        <v>49.16</v>
+        <v>49.25</v>
       </c>
       <c r="D139">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="E139">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F139">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-04 20:47:19</v>
+        <v>2023-10-06 20:14:41</v>
       </c>
       <c r="B140">
-        <v>30.49</v>
+        <v>30.8</v>
       </c>
       <c r="C140">
-        <v>48.87</v>
+        <v>50.04</v>
       </c>
       <c r="D140">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="E140">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="F140">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-05 00:26:04</v>
+        <v>2023-10-06 23:55:58</v>
       </c>
       <c r="B141">
-        <v>30.19</v>
+        <v>31.5</v>
       </c>
       <c r="C141">
-        <v>48.66</v>
+        <v>50.04</v>
       </c>
       <c r="D141">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="E141">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F141">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-05 04:05:05</v>
+        <v>2023-10-07 03:36:44</v>
       </c>
       <c r="B142">
-        <v>30.49</v>
+        <v>31.68</v>
       </c>
       <c r="C142">
-        <v>50.24</v>
+        <v>49.68</v>
       </c>
       <c r="D142">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="E142">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F142">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-05 07:43:09</v>
+        <v>2023-10-07 07:16:54</v>
       </c>
       <c r="B143">
-        <v>30.8</v>
+        <v>31.78</v>
       </c>
       <c r="C143">
-        <v>50.24</v>
+        <v>46.77</v>
       </c>
       <c r="D143">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="E143">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F143">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-05 11:21:59</v>
+        <v>2023-10-07 10:57:17</v>
       </c>
       <c r="B144">
-        <v>30.57</v>
+        <v>30.4</v>
       </c>
       <c r="C144">
-        <v>48.01</v>
+        <v>49.15</v>
       </c>
       <c r="D144">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="E144">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F144">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-05 14:59:46</v>
+        <v>2023-10-07 14:35:49</v>
       </c>
       <c r="B145">
-        <v>30.46</v>
+        <v>30</v>
       </c>
       <c r="C145">
-        <v>51.32</v>
+        <v>49.94</v>
       </c>
       <c r="D145">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="E145">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F145">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-05 18:36:56</v>
+        <v>2023-10-07 18:14:29</v>
       </c>
       <c r="B146">
-        <v>30.69</v>
+        <v>29.7</v>
       </c>
       <c r="C146">
-        <v>51.11</v>
+        <v>49.29</v>
       </c>
       <c r="D146">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="E146">
-        <v>29.4</v>
+        <v>28.4</v>
       </c>
       <c r="F146">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-05 22:18:10</v>
+        <v>2023-10-07 21:47:59</v>
       </c>
       <c r="B147">
-        <v>30.96</v>
+        <v>29.65</v>
       </c>
       <c r="C147">
-        <v>50.6</v>
+        <v>49.29</v>
       </c>
       <c r="D147">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E147">
-        <v>29.4</v>
+        <v>28.4</v>
       </c>
       <c r="F147">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-06 01:59:27</v>
+        <v>2023-10-07 21:51:59</v>
       </c>
       <c r="B148">
-        <v>32</v>
+        <v>29.65</v>
       </c>
       <c r="C148">
-        <v>50.68</v>
+        <v>49.29</v>
       </c>
       <c r="D148">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="E148">
-        <v>29.4</v>
+        <v>28.4</v>
       </c>
       <c r="F148">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-06 02:07:37</v>
+        <v>2023-10-08 01:28:54</v>
       </c>
       <c r="B149">
-        <v>32</v>
+        <v>29.9</v>
       </c>
       <c r="C149">
-        <v>50.68</v>
+        <v>50.15</v>
       </c>
       <c r="D149">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E149">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="F149">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-06 05:45:16</v>
+        <v>2023-10-08 05:05:54</v>
       </c>
       <c r="B150">
-        <v>31.9</v>
+        <v>29.9</v>
       </c>
       <c r="C150">
-        <v>48.1</v>
+        <v>49.86</v>
       </c>
       <c r="D150">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E150">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="F150">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-06 09:21:57</v>
+        <v>2023-10-08 08:47:05</v>
       </c>
       <c r="B151">
-        <v>31.5</v>
+        <v>29.8</v>
       </c>
       <c r="C151">
-        <v>50.62</v>
+        <v>45.04</v>
       </c>
       <c r="D151">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E151">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="F151">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-06 12:57:28</v>
+        <v>2023-10-08 12:27:59</v>
       </c>
       <c r="B152">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="C152">
-        <v>50.76</v>
+        <v>50.22</v>
       </c>
       <c r="D152">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="E152">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="F152">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-06 16:35:32</v>
+        <v>2023-10-08 16:11:53</v>
       </c>
       <c r="B153">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="C153">
-        <v>49.25</v>
+        <v>48.49</v>
       </c>
       <c r="D153">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="E153">
-        <v>29.6</v>
+        <v>28.9</v>
       </c>
       <c r="F153">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-06 20:14:41</v>
+        <v>2023-10-08 19:50:36</v>
       </c>
       <c r="B154">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="C154">
-        <v>50.04</v>
+        <v>44.25</v>
       </c>
       <c r="D154">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="E154">
-        <v>29.6</v>
+        <v>28.7</v>
       </c>
       <c r="F154">
         <v>37</v>
@@ -3362,836 +3362,836 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-06 23:55:58</v>
+        <v>2023-10-08 23:26:16</v>
       </c>
       <c r="B155">
-        <v>31.5</v>
+        <v>31.36</v>
       </c>
       <c r="C155">
-        <v>50.04</v>
+        <v>50.15</v>
       </c>
       <c r="D155">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E155">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="F155">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-07 03:36:44</v>
+        <v>2023-10-09 03:05:52</v>
       </c>
       <c r="B156">
-        <v>31.68</v>
+        <v>31.46</v>
       </c>
       <c r="C156">
-        <v>49.68</v>
+        <v>48.21</v>
       </c>
       <c r="D156">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E156">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="F156">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-07 07:16:54</v>
+        <v>2023-10-09 06:45:54</v>
       </c>
       <c r="B157">
-        <v>31.78</v>
+        <v>31.36</v>
       </c>
       <c r="C157">
-        <v>46.77</v>
+        <v>49.93</v>
       </c>
       <c r="D157">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E157">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="F157">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-07 10:57:17</v>
+        <v>2023-10-09 10:25:36</v>
       </c>
       <c r="B158">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="C158">
-        <v>49.15</v>
+        <v>46.12</v>
       </c>
       <c r="D158">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="E158">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="F158">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-07 14:35:49</v>
+        <v>2023-10-09 14:03:31</v>
       </c>
       <c r="B159">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C159">
-        <v>49.94</v>
+        <v>49.14</v>
       </c>
       <c r="D159">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E159">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="F159">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-07 18:14:29</v>
+        <v>2023-10-09 17:41:11</v>
       </c>
       <c r="B160">
-        <v>29.7</v>
+        <v>30.79</v>
       </c>
       <c r="C160">
-        <v>49.29</v>
+        <v>47.77</v>
       </c>
       <c r="D160">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E160">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="F160">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-07 21:47:59</v>
+        <v>2023-10-09 21:22:28</v>
       </c>
       <c r="B161">
-        <v>29.65</v>
+        <v>30.9</v>
       </c>
       <c r="C161">
-        <v>49.29</v>
+        <v>50.94</v>
       </c>
       <c r="D161">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E161">
-        <v>28.4</v>
+        <v>29</v>
       </c>
       <c r="F161">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-07 21:51:59</v>
+        <v>2023-10-10 01:01:15</v>
       </c>
       <c r="B162">
-        <v>29.65</v>
+        <v>31.46</v>
       </c>
       <c r="C162">
-        <v>49.29</v>
+        <v>50.15</v>
       </c>
       <c r="D162">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E162">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="F162">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-08 01:28:54</v>
+        <v>2023-10-10 04:40:53</v>
       </c>
       <c r="B163">
-        <v>29.9</v>
+        <v>31.99</v>
       </c>
       <c r="C163">
-        <v>50.15</v>
+        <v>51.19</v>
       </c>
       <c r="D163">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E163">
-        <v>28.8</v>
+        <v>29.4</v>
       </c>
       <c r="F163">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-08 05:05:54</v>
+        <v>2023-10-10 08:19:22</v>
       </c>
       <c r="B164">
-        <v>29.9</v>
+        <v>31.89</v>
       </c>
       <c r="C164">
-        <v>49.86</v>
+        <v>51.63</v>
       </c>
       <c r="D164">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E164">
-        <v>28.8</v>
+        <v>29.4</v>
       </c>
       <c r="F164">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-08 08:47:05</v>
+        <v>2023-10-10 11:58:46</v>
       </c>
       <c r="B165">
-        <v>29.8</v>
+        <v>31.8</v>
       </c>
       <c r="C165">
-        <v>45.04</v>
+        <v>51.77</v>
       </c>
       <c r="D165">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="E165">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="F165">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-08 12:27:59</v>
+        <v>2023-10-10 15:40:25</v>
       </c>
       <c r="B166">
-        <v>28.6</v>
+        <v>31</v>
       </c>
       <c r="C166">
-        <v>50.22</v>
+        <v>48.78</v>
       </c>
       <c r="D166">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E166">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="F166">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-08 16:11:53</v>
+        <v>2023-10-10 19:19:48</v>
       </c>
       <c r="B167">
-        <v>29.6</v>
+        <v>31</v>
       </c>
       <c r="C167">
-        <v>48.49</v>
+        <v>50.82</v>
       </c>
       <c r="D167">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E167">
-        <v>28.9</v>
+        <v>30</v>
       </c>
       <c r="F167">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-08 19:50:36</v>
+        <v>2023-10-10 23:00:13</v>
       </c>
       <c r="B168">
-        <v>31</v>
+        <v>32.76</v>
       </c>
       <c r="C168">
-        <v>44.25</v>
+        <v>46.23</v>
       </c>
       <c r="D168">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E168">
-        <v>28.7</v>
+        <v>30.1</v>
       </c>
       <c r="F168">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-08 23:26:16</v>
+        <v>2023-10-11 02:38:13</v>
       </c>
       <c r="B169">
-        <v>31.36</v>
+        <v>32.54</v>
       </c>
       <c r="C169">
-        <v>50.15</v>
+        <v>50.82</v>
       </c>
       <c r="D169">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E169">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="F169">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-09 03:05:52</v>
+        <v>2023-10-11 06:19:29</v>
       </c>
       <c r="B170">
-        <v>31.46</v>
+        <v>32.59</v>
       </c>
       <c r="C170">
-        <v>48.21</v>
+        <v>51.29</v>
       </c>
       <c r="D170">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="E170">
-        <v>28.8</v>
+        <v>30</v>
       </c>
       <c r="F170">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-09 06:45:54</v>
+        <v>2023-10-11 09:59:18</v>
       </c>
       <c r="B171">
-        <v>31.36</v>
+        <v>32</v>
       </c>
       <c r="C171">
-        <v>49.93</v>
+        <v>50.34</v>
       </c>
       <c r="D171">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="E171">
-        <v>28.9</v>
+        <v>30</v>
       </c>
       <c r="F171">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-09 10:25:36</v>
+        <v>2023-10-11 13:35:24</v>
       </c>
       <c r="B172">
-        <v>30.9</v>
+        <v>32.6</v>
       </c>
       <c r="C172">
-        <v>46.12</v>
+        <v>52.45</v>
       </c>
       <c r="D172">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E172">
-        <v>28.9</v>
+        <v>30</v>
       </c>
       <c r="F172">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-09 14:03:31</v>
+        <v>2023-10-11 17:10:47</v>
       </c>
       <c r="B173">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="C173">
-        <v>49.14</v>
+        <v>52.67</v>
       </c>
       <c r="D173">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="E173">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="F173">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-09 17:41:11</v>
+        <v>2023-10-11 20:49:51</v>
       </c>
       <c r="B174">
-        <v>30.79</v>
+        <v>32.22</v>
       </c>
       <c r="C174">
-        <v>47.77</v>
+        <v>52.6</v>
       </c>
       <c r="D174">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="E174">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="F174">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-09 21:22:28</v>
+        <v>2023-10-12 00:28:27</v>
       </c>
       <c r="B175">
-        <v>30.9</v>
+        <v>32.33</v>
       </c>
       <c r="C175">
-        <v>50.94</v>
+        <v>52.6</v>
       </c>
       <c r="D175">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E175">
-        <v>29</v>
+        <v>32.2</v>
       </c>
       <c r="F175">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-10 01:01:15</v>
+        <v>2023-10-12 04:10:55</v>
       </c>
       <c r="B176">
-        <v>31.46</v>
+        <v>32.22</v>
       </c>
       <c r="C176">
-        <v>50.15</v>
+        <v>52.49</v>
       </c>
       <c r="D176">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E176">
-        <v>29.2</v>
+        <v>30.1</v>
       </c>
       <c r="F176">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-10 04:40:53</v>
+        <v>2023-10-12 05:08:33</v>
       </c>
       <c r="B177">
-        <v>31.99</v>
+        <v>32.22</v>
       </c>
       <c r="C177">
-        <v>51.19</v>
+        <v>52.49</v>
       </c>
       <c r="D177">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="E177">
-        <v>29.4</v>
+        <v>30.1</v>
       </c>
       <c r="F177">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-10 08:19:22</v>
+        <v>2023-10-12 06:13:25</v>
       </c>
       <c r="B178">
-        <v>31.89</v>
+        <v>32.22</v>
       </c>
       <c r="C178">
-        <v>51.63</v>
+        <v>52.86</v>
       </c>
       <c r="D178">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="E178">
-        <v>29.4</v>
+        <v>30.1</v>
       </c>
       <c r="F178">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-10 11:58:46</v>
+        <v>2023-10-12 07:16:30</v>
       </c>
       <c r="B179">
-        <v>31.8</v>
+        <v>32.22</v>
       </c>
       <c r="C179">
-        <v>51.77</v>
+        <v>52.86</v>
       </c>
       <c r="D179">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="E179">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="F179">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-10 15:40:25</v>
+        <v>2023-10-12 08:19:50</v>
       </c>
       <c r="B180">
-        <v>31</v>
+        <v>32.22</v>
       </c>
       <c r="C180">
-        <v>48.78</v>
+        <v>51.69</v>
       </c>
       <c r="D180">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E180">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F180">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-10 19:19:48</v>
+        <v>2023-10-12 09:23:06</v>
       </c>
       <c r="B181">
-        <v>31</v>
+        <v>32.13</v>
       </c>
       <c r="C181">
-        <v>50.82</v>
+        <v>50.37</v>
       </c>
       <c r="D181">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="E181">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F181">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-10 23:00:13</v>
+        <v>2023-10-12 09:29:17</v>
       </c>
       <c r="B182">
-        <v>32.76</v>
+        <v>32.13</v>
       </c>
       <c r="C182">
-        <v>46.23</v>
+        <v>50.37</v>
       </c>
       <c r="D182">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="E182">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F182">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-11 02:38:13</v>
+        <v>2023-10-12 10:30:54</v>
       </c>
       <c r="B183">
-        <v>32.54</v>
+        <v>32</v>
       </c>
       <c r="C183">
-        <v>50.82</v>
+        <v>51.69</v>
       </c>
       <c r="D183">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="E183">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F183">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-11 06:19:29</v>
+        <v>2023-10-12 11:33:30</v>
       </c>
       <c r="B184">
-        <v>32.59</v>
+        <v>32</v>
       </c>
       <c r="C184">
-        <v>51.29</v>
+        <v>51.76</v>
       </c>
       <c r="D184">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="E184">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F184">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-11 09:59:18</v>
+        <v>2023-10-12 12:36:13</v>
       </c>
       <c r="B185">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C185">
-        <v>50.34</v>
+        <v>51.76</v>
       </c>
       <c r="D185">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="E185">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F185">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-11 13:35:24</v>
+        <v>2023-10-12 13:38:11</v>
       </c>
       <c r="B186">
-        <v>32.6</v>
+        <v>31.9</v>
       </c>
       <c r="C186">
-        <v>52.45</v>
+        <v>52.86</v>
       </c>
       <c r="D186">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="E186">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F186">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-11 17:10:47</v>
+        <v>2023-10-12 14:42:45</v>
       </c>
       <c r="B187">
-        <v>30.8</v>
+        <v>32</v>
       </c>
       <c r="C187">
-        <v>52.67</v>
+        <v>52.56</v>
       </c>
       <c r="D187">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E187">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F187">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-11 20:49:51</v>
+        <v>2023-10-12 14:50:37</v>
       </c>
       <c r="B188">
-        <v>32.22</v>
+        <v>32</v>
       </c>
       <c r="C188">
-        <v>52.6</v>
+        <v>52.56</v>
       </c>
       <c r="D188">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E188">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F188">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-12 00:28:27</v>
+        <v>2023-10-12 15:51:34</v>
       </c>
       <c r="B189">
-        <v>32.33</v>
+        <v>32.99</v>
       </c>
       <c r="C189">
-        <v>52.6</v>
+        <v>52.86</v>
       </c>
       <c r="D189">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E189">
-        <v>32.2</v>
+        <v>30.2</v>
       </c>
       <c r="F189">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-12 04:10:55</v>
+        <v>2023-10-12 16:51:54</v>
       </c>
       <c r="B190">
-        <v>32.22</v>
+        <v>32.79</v>
       </c>
       <c r="C190">
-        <v>52.49</v>
+        <v>52.86</v>
       </c>
       <c r="D190">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="E190">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="F190">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-12 05:08:33</v>
+        <v>2023-10-12 17:54:47</v>
       </c>
       <c r="B191">
-        <v>32.22</v>
+        <v>32.69</v>
       </c>
       <c r="C191">
-        <v>52.49</v>
+        <v>52.71</v>
       </c>
       <c r="D191">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="E191">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F191">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-12 06:13:25</v>
+        <v>2023-10-12 18:58:41</v>
       </c>
       <c r="B192">
-        <v>32.22</v>
+        <v>32.49</v>
       </c>
       <c r="C192">
         <v>52.86</v>
       </c>
       <c r="D192">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="E192">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F192">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-12 07:16:30</v>
+        <v>2023-10-12 20:03:18</v>
       </c>
       <c r="B193">
-        <v>32.22</v>
+        <v>32.69</v>
       </c>
       <c r="C193">
         <v>52.86</v>
       </c>
       <c r="D193">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="E193">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F193">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-12 08:19:50</v>
+        <v>2023-10-12 20:10:09</v>
       </c>
       <c r="B194">
-        <v>32.22</v>
+        <v>32.69</v>
       </c>
       <c r="C194">
-        <v>51.69</v>
+        <v>52.86</v>
       </c>
       <c r="D194">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="E194">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F194">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-12 09:23:06</v>
+        <v>2023-10-12 21:12:12</v>
       </c>
       <c r="B195">
-        <v>32.13</v>
+        <v>32.49</v>
       </c>
       <c r="C195">
-        <v>50.37</v>
+        <v>52.86</v>
       </c>
       <c r="D195">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="E195">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F195">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-12 09:29:17</v>
+        <v>2023-10-12 22:12:11</v>
       </c>
       <c r="B196">
-        <v>32.13</v>
+        <v>32.49</v>
       </c>
       <c r="C196">
-        <v>50.37</v>
+        <v>49.94</v>
       </c>
       <c r="D196">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="E196">
         <v>30.2</v>
@@ -4202,567 +4202,567 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-12 10:30:54</v>
+        <v>2023-10-12 23:12:39</v>
       </c>
       <c r="B197">
-        <v>32</v>
+        <v>32.79</v>
       </c>
       <c r="C197">
-        <v>51.69</v>
+        <v>49.94</v>
       </c>
       <c r="D197">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="E197">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="F197">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-12 11:33:30</v>
+        <v>2023-10-13 00:13:41</v>
       </c>
       <c r="B198">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C198">
-        <v>51.76</v>
+        <v>52.86</v>
       </c>
       <c r="D198">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E198">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="F198">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-12 12:36:13</v>
+        <v>2023-10-13 01:18:54</v>
       </c>
       <c r="B199">
-        <v>31.9</v>
+        <v>33</v>
       </c>
       <c r="C199">
-        <v>51.76</v>
+        <v>52.71</v>
       </c>
       <c r="D199">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E199">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="F199">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-12 13:38:11</v>
+        <v>2023-10-13 02:20:12</v>
       </c>
       <c r="B200">
-        <v>31.9</v>
+        <v>33.18</v>
       </c>
       <c r="C200">
-        <v>52.86</v>
+        <v>52.27</v>
       </c>
       <c r="D200">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="E200">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="F200">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-12 14:42:45</v>
+        <v>2023-10-13 03:22:56</v>
       </c>
       <c r="B201">
-        <v>32</v>
+        <v>33.99</v>
       </c>
       <c r="C201">
-        <v>52.56</v>
+        <v>51.83</v>
       </c>
       <c r="D201">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="E201">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="F201">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-12 14:50:37</v>
+        <v>2023-10-13 04:21:34</v>
       </c>
       <c r="B202">
-        <v>32</v>
+        <v>33.89</v>
       </c>
       <c r="C202">
-        <v>52.56</v>
+        <v>50.46</v>
       </c>
       <c r="D202">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="E202">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="F202">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-12 15:51:34</v>
+        <v>2023-10-13 05:23:18</v>
       </c>
       <c r="B203">
-        <v>32.99</v>
+        <v>33.89</v>
       </c>
       <c r="C203">
-        <v>52.86</v>
+        <v>50.53</v>
       </c>
       <c r="D203">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="E203">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="F203">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-12 16:51:54</v>
+        <v>2023-10-13 05:29:42</v>
       </c>
       <c r="B204">
-        <v>32.79</v>
+        <v>33.89</v>
       </c>
       <c r="C204">
-        <v>52.86</v>
+        <v>50.53</v>
       </c>
       <c r="D204">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="E204">
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
       <c r="F204">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-12 17:54:47</v>
+        <v>2023-10-13 06:31:41</v>
       </c>
       <c r="B205">
-        <v>32.69</v>
+        <v>33.79</v>
       </c>
       <c r="C205">
-        <v>52.71</v>
+        <v>50.46</v>
       </c>
       <c r="D205">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="E205">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="F205">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-12 18:58:41</v>
+        <v>2023-10-13 07:31:49</v>
       </c>
       <c r="B206">
-        <v>32.49</v>
+        <v>33.79</v>
       </c>
       <c r="C206">
-        <v>52.86</v>
+        <v>54.26</v>
       </c>
       <c r="D206">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="E206">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="F206">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-12 20:03:18</v>
+        <v>2023-10-13 08:33:38</v>
       </c>
       <c r="B207">
-        <v>32.69</v>
+        <v>33.69</v>
       </c>
       <c r="C207">
-        <v>52.86</v>
+        <v>54.26</v>
       </c>
       <c r="D207">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="E207">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="F207">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-12 20:10:09</v>
+        <v>2023-10-13 08:38:35</v>
       </c>
       <c r="B208">
-        <v>32.69</v>
+        <v>33.69</v>
       </c>
       <c r="C208">
-        <v>52.86</v>
+        <v>54.26</v>
       </c>
       <c r="D208">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="E208">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="F208">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>2023-10-12 21:12:12</v>
+        <v>2023-10-13 09:41:48</v>
       </c>
       <c r="B209">
-        <v>32.49</v>
+        <v>33.69</v>
       </c>
       <c r="C209">
-        <v>52.86</v>
+        <v>52.87</v>
       </c>
       <c r="D209">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E209">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="F209">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>2023-10-12 22:12:11</v>
+        <v>2023-10-13 10:41:50</v>
       </c>
       <c r="B210">
-        <v>32.49</v>
+        <v>33.69</v>
       </c>
       <c r="C210">
-        <v>49.94</v>
+        <v>51.05</v>
       </c>
       <c r="D210">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="E210">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="F210">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>2023-10-12 23:12:39</v>
+        <v>2023-10-13 11:41:53</v>
       </c>
       <c r="B211">
-        <v>32.79</v>
+        <v>33.69</v>
       </c>
       <c r="C211">
-        <v>49.94</v>
+        <v>52.87</v>
       </c>
       <c r="D211">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="E211">
-        <v>30.3</v>
+        <v>29.5</v>
       </c>
       <c r="F211">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>2023-10-13 00:13:41</v>
+        <v>2023-10-13 12:43:05</v>
       </c>
       <c r="B212">
-        <v>33</v>
+        <v>33.79</v>
       </c>
       <c r="C212">
-        <v>52.86</v>
+        <v>52.87</v>
       </c>
       <c r="D212">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="E212">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="F212">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>2023-10-13 01:18:54</v>
+        <v>2023-10-13 12:48:01</v>
       </c>
       <c r="B213">
-        <v>33</v>
+        <v>33.79</v>
       </c>
       <c r="C213">
-        <v>52.71</v>
+        <v>52.87</v>
       </c>
       <c r="D213">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="E213">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="F213">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>2023-10-13 02:20:12</v>
+        <v>2023-10-13 13:51:09</v>
       </c>
       <c r="B214">
-        <v>33.18</v>
+        <v>33.69</v>
       </c>
       <c r="C214">
-        <v>52.27</v>
+        <v>52.87</v>
       </c>
       <c r="D214">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E214">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="F214">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>2023-10-13 03:22:56</v>
+        <v>2023-10-13 14:51:38</v>
       </c>
       <c r="B215">
-        <v>33.99</v>
+        <v>33.59</v>
       </c>
       <c r="C215">
-        <v>51.83</v>
+        <v>52.87</v>
       </c>
       <c r="D215">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E215">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="F215">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>2023-10-13 04:21:34</v>
+        <v>2023-10-13 15:52:42</v>
       </c>
       <c r="B216">
-        <v>33.89</v>
+        <v>33.1</v>
       </c>
       <c r="C216">
-        <v>50.46</v>
+        <v>52.58</v>
       </c>
       <c r="D216">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="E216">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="F216">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>2023-10-13 05:23:18</v>
+        <v>2023-10-13 16:51:48</v>
       </c>
       <c r="B217">
-        <v>33.89</v>
+        <v>32.79</v>
       </c>
       <c r="C217">
-        <v>50.53</v>
+        <v>52.87</v>
       </c>
       <c r="D217">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="E217">
-        <v>29</v>
+        <v>29.7</v>
       </c>
       <c r="F217">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>2023-10-13 05:29:42</v>
+        <v>2023-10-13 17:52:50</v>
       </c>
       <c r="B218">
-        <v>33.89</v>
+        <v>32.69</v>
       </c>
       <c r="C218">
-        <v>50.53</v>
+        <v>52.87</v>
       </c>
       <c r="D218">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="E218">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="F218">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>2023-10-13 06:31:41</v>
+        <v>2023-10-13 17:58:06</v>
       </c>
       <c r="B219">
-        <v>33.79</v>
+        <v>32.59</v>
       </c>
       <c r="C219">
-        <v>50.46</v>
+        <v>52.87</v>
       </c>
       <c r="D219">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="E219">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="F219">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>2023-10-13 07:31:49</v>
+        <v>2023-10-13 19:00:28</v>
       </c>
       <c r="B220">
-        <v>33.79</v>
+        <v>32.5</v>
       </c>
       <c r="C220">
-        <v>54.26</v>
+        <v>55.5</v>
       </c>
       <c r="D220">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="E220">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F220">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>2023-10-13 08:33:38</v>
+        <v>2023-10-13 20:01:56</v>
       </c>
       <c r="B221">
-        <v>33.69</v>
+        <v>32.99</v>
       </c>
       <c r="C221">
-        <v>54.26</v>
+        <v>55.5</v>
       </c>
       <c r="D221">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E221">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F221">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>2023-10-13 08:38:35</v>
+        <v>2023-10-13 21:02:48</v>
       </c>
       <c r="B222">
-        <v>33.69</v>
+        <v>33.19</v>
       </c>
       <c r="C222">
-        <v>54.26</v>
+        <v>55.21</v>
       </c>
       <c r="D222">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E222">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F222">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>2023-10-13 09:41:48</v>
+        <v>2023-10-13 22:02:39</v>
       </c>
       <c r="B223">
-        <v>33.69</v>
+        <v>33.59</v>
       </c>
       <c r="C223">
-        <v>52.87</v>
+        <v>51.05</v>
       </c>
       <c r="D223">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E223">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F223">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>2023-10-13 10:41:50</v>
+        <v>2023-10-13 23:03:01</v>
       </c>
       <c r="B224">
         <v>33.69</v>
       </c>
       <c r="C224">
-        <v>51.05</v>
+        <v>52.87</v>
       </c>
       <c r="D224">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E224">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="F224">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>2023-10-13 11:41:53</v>
+        <v>2023-10-13 23:08:41</v>
       </c>
       <c r="B225">
         <v>33.69</v>
@@ -4771,130 +4771,130 @@
         <v>52.87</v>
       </c>
       <c r="D225">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E225">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="F225">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>2023-10-13 12:43:05</v>
+        <v>2023-10-14 00:12:08</v>
       </c>
       <c r="B226">
-        <v>33.79</v>
+        <v>33.89</v>
       </c>
       <c r="C226">
-        <v>52.87</v>
+        <v>50.9</v>
       </c>
       <c r="D226">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="E226">
         <v>29.9</v>
       </c>
       <c r="F226">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>2023-10-13 12:48:01</v>
+        <v>2023-10-14 01:13:48</v>
       </c>
       <c r="B227">
-        <v>33.79</v>
+        <v>33.99</v>
       </c>
       <c r="C227">
-        <v>52.87</v>
+        <v>50.61</v>
       </c>
       <c r="D227">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E227">
         <v>29.9</v>
       </c>
       <c r="F227">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>2023-10-13 13:51:09</v>
+        <v>2023-10-14 02:15:15</v>
       </c>
       <c r="B228">
-        <v>33.69</v>
+        <v>34</v>
       </c>
       <c r="C228">
-        <v>52.87</v>
+        <v>50.46</v>
       </c>
       <c r="D228">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E228">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="F228">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>2023-10-13 14:51:38</v>
+        <v>2023-10-14 03:21:16</v>
       </c>
       <c r="B229">
-        <v>33.59</v>
+        <v>34</v>
       </c>
       <c r="C229">
-        <v>52.87</v>
+        <v>50.1</v>
       </c>
       <c r="D229">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="E229">
-        <v>29.7</v>
+        <v>30.7</v>
       </c>
       <c r="F229">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>2023-10-13 15:52:42</v>
+        <v>2023-10-14 04:24:15</v>
       </c>
       <c r="B230">
-        <v>33.1</v>
+        <v>33.9</v>
       </c>
       <c r="C230">
-        <v>52.58</v>
+        <v>50.48</v>
       </c>
       <c r="D230">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="E230">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="F230">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>2023-10-13 16:51:48</v>
+        <v>2023-10-14 05:25:13</v>
       </c>
       <c r="B231">
-        <v>32.79</v>
+        <v>33.9</v>
       </c>
       <c r="C231">
-        <v>52.87</v>
+        <v>50.92</v>
       </c>
       <c r="D231">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="E231">
-        <v>29.7</v>
+        <v>30.8</v>
       </c>
       <c r="F231">
         <v>40</v>
@@ -4902,79 +4902,79 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>2023-10-13 17:52:50</v>
+        <v>2023-10-14 06:31:12</v>
       </c>
       <c r="B232">
-        <v>32.69</v>
+        <v>33.9</v>
       </c>
       <c r="C232">
-        <v>52.87</v>
+        <v>52.16</v>
       </c>
       <c r="D232">
-        <v>691</v>
+        <v>664</v>
       </c>
       <c r="E232">
-        <v>29.8</v>
+        <v>30.9</v>
       </c>
       <c r="F232">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>2023-10-13 17:58:06</v>
+        <v>2023-10-14 07:30:38</v>
       </c>
       <c r="B233">
-        <v>32.59</v>
+        <v>33.9</v>
       </c>
       <c r="C233">
-        <v>52.87</v>
+        <v>52.09</v>
       </c>
       <c r="D233">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="E233">
-        <v>29.8</v>
+        <v>30.9</v>
       </c>
       <c r="F233">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>2023-10-13 19:00:28</v>
+        <v>2023-10-14 08:34:40</v>
       </c>
       <c r="B234">
-        <v>32.5</v>
+        <v>33.9</v>
       </c>
       <c r="C234">
-        <v>55.5</v>
+        <v>52.67</v>
       </c>
       <c r="D234">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="E234">
-        <v>29.8</v>
+        <v>30.9</v>
       </c>
       <c r="F234">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>2023-10-13 20:01:56</v>
+        <v>2023-10-14 09:39:09</v>
       </c>
       <c r="B235">
-        <v>32.99</v>
+        <v>33.79</v>
       </c>
       <c r="C235">
-        <v>55.5</v>
+        <v>52.96</v>
       </c>
       <c r="D235">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="E235">
-        <v>29.7</v>
+        <v>30.8</v>
       </c>
       <c r="F235">
         <v>40</v>
@@ -4982,522 +4982,1782 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>2023-10-13 21:02:48</v>
+        <v>2023-10-14 10:41:11</v>
       </c>
       <c r="B236">
-        <v>33.19</v>
+        <v>33.7</v>
       </c>
       <c r="C236">
-        <v>55.21</v>
+        <v>51.8</v>
       </c>
       <c r="D236">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="E236">
-        <v>29.7</v>
+        <v>30.9</v>
       </c>
       <c r="F236">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>2023-10-13 22:02:39</v>
+        <v>2023-10-14 11:42:39</v>
       </c>
       <c r="B237">
-        <v>33.59</v>
+        <v>33.9</v>
       </c>
       <c r="C237">
-        <v>51.05</v>
+        <v>53.11</v>
       </c>
       <c r="D237">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E237">
-        <v>29.7</v>
+        <v>30.9</v>
       </c>
       <c r="F237">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>2023-10-13 23:03:01</v>
+        <v>2023-10-14 12:42:16</v>
       </c>
       <c r="B238">
-        <v>33.69</v>
+        <v>33.7</v>
       </c>
       <c r="C238">
-        <v>52.87</v>
+        <v>53.84</v>
       </c>
       <c r="D238">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E238">
-        <v>29.9</v>
+        <v>31</v>
       </c>
       <c r="F238">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>2023-10-13 23:08:41</v>
+        <v>2023-10-14 13:44:52</v>
       </c>
       <c r="B239">
-        <v>33.69</v>
+        <v>33.7</v>
       </c>
       <c r="C239">
-        <v>52.87</v>
+        <v>52.96</v>
       </c>
       <c r="D239">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E239">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="F239">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>2023-10-14 00:12:08</v>
+        <v>2023-10-14 14:49:39</v>
       </c>
       <c r="B240">
-        <v>33.89</v>
+        <v>33.7</v>
       </c>
       <c r="C240">
-        <v>50.9</v>
+        <v>49.75</v>
       </c>
       <c r="D240">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E240">
-        <v>29.9</v>
+        <v>31</v>
       </c>
       <c r="F240">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>2023-10-14 01:13:48</v>
+        <v>2023-10-14 15:52:00</v>
       </c>
       <c r="B241">
-        <v>33.99</v>
+        <v>32.63</v>
       </c>
       <c r="C241">
-        <v>50.61</v>
+        <v>51.87</v>
       </c>
       <c r="D241">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E241">
-        <v>29.9</v>
+        <v>31</v>
       </c>
       <c r="F241">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>2023-10-14 02:15:15</v>
+        <v>2023-10-14 16:53:04</v>
       </c>
       <c r="B242">
-        <v>34</v>
+        <v>32.63</v>
       </c>
       <c r="C242">
-        <v>50.46</v>
+        <v>51.07</v>
       </c>
       <c r="D242">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E242">
-        <v>30.1</v>
+        <v>31.1</v>
       </c>
       <c r="F242">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>2023-10-14 03:21:16</v>
+        <v>2023-10-14 17:54:28</v>
       </c>
       <c r="B243">
-        <v>34</v>
+        <v>31.9</v>
       </c>
       <c r="C243">
-        <v>50.1</v>
+        <v>51.87</v>
       </c>
       <c r="D243">
         <v>664</v>
       </c>
       <c r="E243">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="F243">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>2023-10-14 04:24:15</v>
+        <v>2023-10-14 18:02:42</v>
       </c>
       <c r="B244">
-        <v>33.9</v>
+        <v>32.63</v>
       </c>
       <c r="C244">
-        <v>50.48</v>
+        <v>49.9</v>
       </c>
       <c r="D244">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E244">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="F244">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>2023-10-14 05:25:13</v>
+        <v>2023-10-14 19:01:43</v>
       </c>
       <c r="B245">
-        <v>33.9</v>
+        <v>33</v>
       </c>
       <c r="C245">
-        <v>50.92</v>
+        <v>50.77</v>
       </c>
       <c r="D245">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E245">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="F245">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>2023-10-14 06:31:12</v>
+        <v>2023-10-14 20:02:05</v>
       </c>
       <c r="B246">
-        <v>33.9</v>
+        <v>33.79</v>
       </c>
       <c r="C246">
-        <v>52.16</v>
+        <v>49.09</v>
       </c>
       <c r="D246">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E246">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="F246">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>2023-10-14 07:30:38</v>
+        <v>2023-10-14 20:09:04</v>
       </c>
       <c r="B247">
-        <v>33.9</v>
+        <v>33.79</v>
       </c>
       <c r="C247">
-        <v>52.09</v>
+        <v>49.09</v>
       </c>
       <c r="D247">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="E247">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="F247">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>2023-10-14 08:34:40</v>
+        <v>2023-10-14 21:11:36</v>
       </c>
       <c r="B248">
-        <v>33.9</v>
+        <v>34.79</v>
       </c>
       <c r="C248">
-        <v>52.67</v>
+        <v>51.72</v>
       </c>
       <c r="D248">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E248">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="F248">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>2023-10-14 09:39:09</v>
+        <v>2023-10-14 22:11:52</v>
       </c>
       <c r="B249">
-        <v>33.79</v>
+        <v>32.29</v>
       </c>
       <c r="C249">
-        <v>52.96</v>
+        <v>46.17</v>
       </c>
       <c r="D249">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="E249">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="F249">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>2023-10-14 10:41:11</v>
+        <v>2023-10-14 23:13:18</v>
       </c>
       <c r="B250">
-        <v>33.7</v>
+        <v>34.79</v>
       </c>
       <c r="C250">
-        <v>51.8</v>
+        <v>50.19</v>
       </c>
       <c r="D250">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="E250">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
       <c r="F250">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>2023-10-14 11:42:39</v>
+        <v>2023-10-15 00:12:38</v>
       </c>
       <c r="B251">
-        <v>33.9</v>
+        <v>34.7</v>
       </c>
       <c r="C251">
-        <v>53.11</v>
+        <v>49.9</v>
       </c>
       <c r="D251">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="E251">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="F251">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>2023-10-14 12:42:16</v>
+        <v>2023-10-15 01:14:10</v>
       </c>
       <c r="B252">
-        <v>33.7</v>
+        <v>34.6</v>
       </c>
       <c r="C252">
-        <v>53.84</v>
+        <v>44.93</v>
       </c>
       <c r="D252">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="E252">
-        <v>31</v>
+        <v>31.6</v>
       </c>
       <c r="F252">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>2023-10-14 13:44:52</v>
+        <v>2023-10-15 01:18:54</v>
       </c>
       <c r="B253">
-        <v>33.7</v>
+        <v>34.6</v>
       </c>
       <c r="C253">
-        <v>52.96</v>
+        <v>44.93</v>
       </c>
       <c r="D253">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E253">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="F253">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>2023-10-14 14:49:39</v>
+        <v>2023-10-15 02:20:36</v>
       </c>
       <c r="B254">
-        <v>33.7</v>
+        <v>33.89</v>
       </c>
       <c r="C254">
-        <v>49.75</v>
+        <v>49.68</v>
       </c>
       <c r="D254">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E254">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="F254">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>2023-10-14 15:52:00</v>
+        <v>2023-10-15 03:22:31</v>
       </c>
       <c r="B255">
-        <v>32.63</v>
+        <v>34.6</v>
       </c>
       <c r="C255">
-        <v>51.87</v>
+        <v>51.72</v>
       </c>
       <c r="D255">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E255">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="F255">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>2023-10-14 16:53:04</v>
+        <v>2023-10-15 04:24:29</v>
       </c>
       <c r="B256">
-        <v>32.63</v>
+        <v>34.6</v>
       </c>
       <c r="C256">
-        <v>51.07</v>
+        <v>51.71</v>
       </c>
       <c r="D256">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E256">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="F256">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>2023-10-14 17:54:28</v>
+        <v>2023-10-15 04:30:45</v>
       </c>
       <c r="B257">
-        <v>31.9</v>
+        <v>34.6</v>
       </c>
       <c r="C257">
-        <v>51.87</v>
+        <v>51.71</v>
       </c>
       <c r="D257">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E257">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="F257">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>2023-10-14 18:02:42</v>
+        <v>2023-10-15 05:27:19</v>
       </c>
       <c r="B258">
-        <v>32.63</v>
+        <v>34.6</v>
       </c>
       <c r="C258">
-        <v>49.9</v>
+        <v>51.71</v>
       </c>
       <c r="D258">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E258">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="F258">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>2023-10-14 19:01:43</v>
+        <v>2023-10-15 06:32:39</v>
       </c>
       <c r="B259">
+        <v>34.6</v>
+      </c>
+      <c r="C259">
+        <v>50.18</v>
+      </c>
+      <c r="D259">
+        <v>658</v>
+      </c>
+      <c r="E259">
+        <v>31.7</v>
+      </c>
+      <c r="F259">
         <v>33</v>
-      </c>
-      <c r="C259">
-        <v>50.77</v>
-      </c>
-      <c r="D259">
-        <v>662</v>
-      </c>
-      <c r="E259">
-        <v>31.1</v>
-      </c>
-      <c r="F259">
-        <v>38</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>2023-10-14 20:02:05</v>
+        <v>2023-10-15 07:32:43</v>
       </c>
       <c r="B260">
-        <v>33.79</v>
+        <v>34.6</v>
       </c>
       <c r="C260">
-        <v>49.09</v>
+        <v>50.18</v>
       </c>
       <c r="D260">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E260">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="F260">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>2023-10-14 20:09:04</v>
+        <v>2023-10-15 08:36:16</v>
       </c>
       <c r="B261">
+        <v>34.6</v>
+      </c>
+      <c r="C261">
+        <v>51.86</v>
+      </c>
+      <c r="D261">
+        <v>655</v>
+      </c>
+      <c r="E261">
+        <v>31.8</v>
+      </c>
+      <c r="F261">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>2023-10-15 09:42:07</v>
+      </c>
+      <c r="B262">
+        <v>34.6</v>
+      </c>
+      <c r="C262">
+        <v>52.08</v>
+      </c>
+      <c r="D262">
+        <v>656</v>
+      </c>
+      <c r="E262">
+        <v>31.7</v>
+      </c>
+      <c r="F262">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>2023-10-15 10:40:27</v>
+      </c>
+      <c r="B263">
+        <v>34.7</v>
+      </c>
+      <c r="C263">
+        <v>54.71</v>
+      </c>
+      <c r="D263">
+        <v>650</v>
+      </c>
+      <c r="E263">
+        <v>31.8</v>
+      </c>
+      <c r="F263">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>2023-10-15 11:45:00</v>
+      </c>
+      <c r="B264">
+        <v>33.9</v>
+      </c>
+      <c r="C264">
+        <v>54.71</v>
+      </c>
+      <c r="D264">
+        <v>654</v>
+      </c>
+      <c r="E264">
+        <v>31.7</v>
+      </c>
+      <c r="F264">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>2023-10-15 11:48:39</v>
+      </c>
+      <c r="B265">
+        <v>33.5</v>
+      </c>
+      <c r="C265">
+        <v>54.71</v>
+      </c>
+      <c r="D265">
+        <v>656</v>
+      </c>
+      <c r="E265">
+        <v>31.7</v>
+      </c>
+      <c r="F265">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>2023-10-15 12:50:13</v>
+      </c>
+      <c r="B266">
+        <v>33</v>
+      </c>
+      <c r="C266">
+        <v>50.47</v>
+      </c>
+      <c r="D266">
+        <v>657</v>
+      </c>
+      <c r="E266">
+        <v>31.7</v>
+      </c>
+      <c r="F266">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>2023-10-15 13:53:30</v>
+      </c>
+      <c r="B267">
+        <v>33.5</v>
+      </c>
+      <c r="C267">
+        <v>54.71</v>
+      </c>
+      <c r="D267">
+        <v>655</v>
+      </c>
+      <c r="E267">
+        <v>31.7</v>
+      </c>
+      <c r="F267">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>2023-10-15 14:54:09</v>
+      </c>
+      <c r="B268">
+        <v>33.29</v>
+      </c>
+      <c r="C268">
+        <v>53.32</v>
+      </c>
+      <c r="D268">
+        <v>655</v>
+      </c>
+      <c r="E268">
+        <v>29.8</v>
+      </c>
+      <c r="F268">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>2023-10-15 14:58:01</v>
+      </c>
+      <c r="B269">
+        <v>33.29</v>
+      </c>
+      <c r="C269">
+        <v>53.32</v>
+      </c>
+      <c r="D269">
+        <v>657</v>
+      </c>
+      <c r="E269">
+        <v>29.9</v>
+      </c>
+      <c r="F269">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>2023-10-15 15:58:39</v>
+      </c>
+      <c r="B270">
+        <v>33</v>
+      </c>
+      <c r="C270">
+        <v>54.71</v>
+      </c>
+      <c r="D270">
+        <v>662</v>
+      </c>
+      <c r="E270">
+        <v>30</v>
+      </c>
+      <c r="F270">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>2023-10-15 17:01:40</v>
+      </c>
+      <c r="B271">
+        <v>32.5</v>
+      </c>
+      <c r="C271">
+        <v>53.03</v>
+      </c>
+      <c r="D271">
+        <v>659</v>
+      </c>
+      <c r="E271">
+        <v>29.8</v>
+      </c>
+      <c r="F271">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>2023-10-15 18:03:06</v>
+      </c>
+      <c r="B272">
+        <v>33.1</v>
+      </c>
+      <c r="C272">
+        <v>51.64</v>
+      </c>
+      <c r="D272">
+        <v>662</v>
+      </c>
+      <c r="E272">
+        <v>30</v>
+      </c>
+      <c r="F272">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>2023-10-15 19:05:08</v>
+      </c>
+      <c r="B273">
+        <v>32.4</v>
+      </c>
+      <c r="C273">
+        <v>56.39</v>
+      </c>
+      <c r="D273">
+        <v>667</v>
+      </c>
+      <c r="E273">
+        <v>29.9</v>
+      </c>
+      <c r="F273">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>2023-10-15 19:10:12</v>
+      </c>
+      <c r="B274">
+        <v>32.4</v>
+      </c>
+      <c r="C274">
+        <v>56.39</v>
+      </c>
+      <c r="D274">
+        <v>667</v>
+      </c>
+      <c r="E274">
+        <v>29.9</v>
+      </c>
+      <c r="F274">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>2023-10-15 20:12:27</v>
+      </c>
+      <c r="B275">
+        <v>32.29</v>
+      </c>
+      <c r="C275">
+        <v>50.62</v>
+      </c>
+      <c r="D275">
+        <v>663</v>
+      </c>
+      <c r="E275">
+        <v>29.9</v>
+      </c>
+      <c r="F275">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>2023-10-15 21:11:40</v>
+      </c>
+      <c r="B276">
+        <v>32.29</v>
+      </c>
+      <c r="C276">
+        <v>49.6</v>
+      </c>
+      <c r="D276">
+        <v>662</v>
+      </c>
+      <c r="E276">
+        <v>29.9</v>
+      </c>
+      <c r="F276">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>2023-10-15 22:12:20</v>
+      </c>
+      <c r="B277">
+        <v>32.5</v>
+      </c>
+      <c r="C277">
+        <v>56.32</v>
+      </c>
+      <c r="D277">
+        <v>659</v>
+      </c>
+      <c r="E277">
+        <v>29.9</v>
+      </c>
+      <c r="F277">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>2023-10-15 23:15:50</v>
+      </c>
+      <c r="B278">
+        <v>33.2</v>
+      </c>
+      <c r="C278">
+        <v>56.39</v>
+      </c>
+      <c r="D278">
+        <v>647</v>
+      </c>
+      <c r="E278">
+        <v>30.1</v>
+      </c>
+      <c r="F278">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>2023-10-16 00:21:02</v>
+      </c>
+      <c r="B279">
+        <v>32.9</v>
+      </c>
+      <c r="C279">
+        <v>55.44</v>
+      </c>
+      <c r="D279">
+        <v>647</v>
+      </c>
+      <c r="E279">
+        <v>30.1</v>
+      </c>
+      <c r="F279">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>2023-10-16 01:24:22</v>
+      </c>
+      <c r="B280">
+        <v>32.9</v>
+      </c>
+      <c r="C280">
+        <v>53.98</v>
+      </c>
+      <c r="D280">
+        <v>649</v>
+      </c>
+      <c r="E280">
+        <v>30.1</v>
+      </c>
+      <c r="F280">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>2023-10-16 02:23:50</v>
+      </c>
+      <c r="B281">
+        <v>32.9</v>
+      </c>
+      <c r="C281">
+        <v>55.88</v>
+      </c>
+      <c r="D281">
+        <v>650</v>
+      </c>
+      <c r="E281">
+        <v>30.1</v>
+      </c>
+      <c r="F281">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>2023-10-16 03:23:53</v>
+      </c>
+      <c r="B282">
+        <v>32.9</v>
+      </c>
+      <c r="C282">
+        <v>55.88</v>
+      </c>
+      <c r="D282">
+        <v>650</v>
+      </c>
+      <c r="E282">
+        <v>30.1</v>
+      </c>
+      <c r="F282">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>2023-10-16 04:27:05</v>
+      </c>
+      <c r="B283">
+        <v>32.9</v>
+      </c>
+      <c r="C283">
+        <v>53.98</v>
+      </c>
+      <c r="D283">
+        <v>651</v>
+      </c>
+      <c r="E283">
+        <v>30.1</v>
+      </c>
+      <c r="F283">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>2023-10-16 05:31:48</v>
+      </c>
+      <c r="B284">
+        <v>32.9</v>
+      </c>
+      <c r="C284">
+        <v>53.98</v>
+      </c>
+      <c r="D284">
+        <v>650</v>
+      </c>
+      <c r="E284">
+        <v>30.2</v>
+      </c>
+      <c r="F284">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>2023-10-16 06:36:01</v>
+      </c>
+      <c r="B285">
+        <v>32.9</v>
+      </c>
+      <c r="C285">
+        <v>52.9</v>
+      </c>
+      <c r="D285">
+        <v>649</v>
+      </c>
+      <c r="E285">
+        <v>30.2</v>
+      </c>
+      <c r="F285">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>2023-10-16 07:37:54</v>
+      </c>
+      <c r="B286">
+        <v>32.9</v>
+      </c>
+      <c r="C286">
+        <v>53.98</v>
+      </c>
+      <c r="D286">
+        <v>650</v>
+      </c>
+      <c r="E286">
+        <v>30.2</v>
+      </c>
+      <c r="F286">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>2023-10-16 08:42:14</v>
+      </c>
+      <c r="B287">
+        <v>32.79</v>
+      </c>
+      <c r="C287">
+        <v>53.98</v>
+      </c>
+      <c r="D287">
+        <v>644</v>
+      </c>
+      <c r="E287">
+        <v>30.2</v>
+      </c>
+      <c r="F287">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>2023-10-16 09:42:54</v>
+      </c>
+      <c r="B288">
+        <v>32.7</v>
+      </c>
+      <c r="C288">
+        <v>53.98</v>
+      </c>
+      <c r="D288">
+        <v>645</v>
+      </c>
+      <c r="E288">
+        <v>30.3</v>
+      </c>
+      <c r="F288">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>2023-10-16 10:43:54</v>
+      </c>
+      <c r="B289">
+        <v>32.79</v>
+      </c>
+      <c r="C289">
+        <v>53.98</v>
+      </c>
+      <c r="D289">
+        <v>651</v>
+      </c>
+      <c r="E289">
+        <v>30.4</v>
+      </c>
+      <c r="F289">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>2023-10-16 11:47:25</v>
+      </c>
+      <c r="B290">
+        <v>32.7</v>
+      </c>
+      <c r="C290">
+        <v>53.98</v>
+      </c>
+      <c r="D290">
+        <v>652</v>
+      </c>
+      <c r="E290">
+        <v>30.5</v>
+      </c>
+      <c r="F290">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>2023-10-16 12:50:14</v>
+      </c>
+      <c r="B291">
+        <v>32.79</v>
+      </c>
+      <c r="C291">
+        <v>54.91</v>
+      </c>
+      <c r="D291">
+        <v>651</v>
+      </c>
+      <c r="E291">
+        <v>30.5</v>
+      </c>
+      <c r="F291">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>2023-10-16 13:54:31</v>
+      </c>
+      <c r="B292">
+        <v>32.79</v>
+      </c>
+      <c r="C292">
+        <v>55.27</v>
+      </c>
+      <c r="D292">
+        <v>653</v>
+      </c>
+      <c r="E292">
+        <v>30.5</v>
+      </c>
+      <c r="F292">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>2023-10-16 14:53:14</v>
+      </c>
+      <c r="B293">
         <v>33.79</v>
       </c>
-      <c r="C261">
-        <v>49.09</v>
-      </c>
-      <c r="D261">
-        <v>658</v>
-      </c>
-      <c r="E261">
+      <c r="C293">
+        <v>55.27</v>
+      </c>
+      <c r="D293">
+        <v>651</v>
+      </c>
+      <c r="E293">
+        <v>30.8</v>
+      </c>
+      <c r="F293">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>2023-10-16 14:59:29</v>
+      </c>
+      <c r="B294">
+        <v>33.79</v>
+      </c>
+      <c r="C294">
+        <v>55.27</v>
+      </c>
+      <c r="D294">
+        <v>651</v>
+      </c>
+      <c r="E294">
+        <v>30.8</v>
+      </c>
+      <c r="F294">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>2023-10-16 16:01:57</v>
+      </c>
+      <c r="B295">
+        <v>33</v>
+      </c>
+      <c r="C295">
+        <v>55.27</v>
+      </c>
+      <c r="D295">
+        <v>653</v>
+      </c>
+      <c r="E295">
+        <v>30.7</v>
+      </c>
+      <c r="F295">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>2023-10-16 17:01:26</v>
+      </c>
+      <c r="B296">
+        <v>32.9</v>
+      </c>
+      <c r="C296">
+        <v>51.54</v>
+      </c>
+      <c r="D296">
+        <v>653</v>
+      </c>
+      <c r="E296">
+        <v>30.8</v>
+      </c>
+      <c r="F296">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>2023-10-16 17:59:11</v>
+      </c>
+      <c r="B297">
+        <v>32</v>
+      </c>
+      <c r="C297">
+        <v>51.47</v>
+      </c>
+      <c r="D297">
+        <v>651</v>
+      </c>
+      <c r="E297">
+        <v>30.8</v>
+      </c>
+      <c r="F297">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>2023-10-16 19:04:22</v>
+      </c>
+      <c r="B298">
+        <v>32.4</v>
+      </c>
+      <c r="C298">
+        <v>51.47</v>
+      </c>
+      <c r="D298">
+        <v>651</v>
+      </c>
+      <c r="E298">
+        <v>30.8</v>
+      </c>
+      <c r="F298">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>2023-10-16 20:04:33</v>
+      </c>
+      <c r="B299">
+        <v>32.29</v>
+      </c>
+      <c r="C299">
+        <v>51.39</v>
+      </c>
+      <c r="D299">
+        <v>655</v>
+      </c>
+      <c r="E299">
+        <v>30.8</v>
+      </c>
+      <c r="F299">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>2023-10-16 20:09:43</v>
+      </c>
+      <c r="B300">
+        <v>32.2</v>
+      </c>
+      <c r="C300">
+        <v>51.25</v>
+      </c>
+      <c r="D300">
+        <v>656</v>
+      </c>
+      <c r="E300">
+        <v>30.8</v>
+      </c>
+      <c r="F300">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>2023-10-16 21:12:18</v>
+      </c>
+      <c r="B301">
+        <v>32.5</v>
+      </c>
+      <c r="C301">
+        <v>53.98</v>
+      </c>
+      <c r="D301">
+        <v>657</v>
+      </c>
+      <c r="E301">
+        <v>30.8</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>2023-10-16 22:12:31</v>
+      </c>
+      <c r="B302">
+        <v>31.9</v>
+      </c>
+      <c r="C302">
+        <v>53.05</v>
+      </c>
+      <c r="D302">
+        <v>655</v>
+      </c>
+      <c r="E302">
+        <v>30.7</v>
+      </c>
+      <c r="F302">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>2023-10-16 23:12:04</v>
+      </c>
+      <c r="B303">
+        <v>33.7</v>
+      </c>
+      <c r="C303">
+        <v>53.98</v>
+      </c>
+      <c r="D303">
+        <v>651</v>
+      </c>
+      <c r="E303">
+        <v>30.8</v>
+      </c>
+      <c r="F303">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>2023-10-17 00:13:37</v>
+      </c>
+      <c r="B304">
+        <v>33.7</v>
+      </c>
+      <c r="C304">
+        <v>52.18</v>
+      </c>
+      <c r="D304">
+        <v>649</v>
+      </c>
+      <c r="E304">
+        <v>30.8</v>
+      </c>
+      <c r="F304">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>2023-10-17 01:16:36</v>
+      </c>
+      <c r="B305">
+        <v>33.7</v>
+      </c>
+      <c r="C305">
+        <v>52.18</v>
+      </c>
+      <c r="D305">
+        <v>649</v>
+      </c>
+      <c r="E305">
+        <v>31</v>
+      </c>
+      <c r="F305">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>2023-10-17 02:18:56</v>
+      </c>
+      <c r="B306">
+        <v>33.9</v>
+      </c>
+      <c r="C306">
+        <v>52.18</v>
+      </c>
+      <c r="D306">
+        <v>642</v>
+      </c>
+      <c r="E306">
+        <v>31</v>
+      </c>
+      <c r="F306">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>2023-10-17 03:23:37</v>
+      </c>
+      <c r="B307">
+        <v>33.9</v>
+      </c>
+      <c r="C307">
+        <v>50.32</v>
+      </c>
+      <c r="D307">
+        <v>642</v>
+      </c>
+      <c r="E307">
+        <v>30.9</v>
+      </c>
+      <c r="F307">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>2023-10-17 04:24:13</v>
+      </c>
+      <c r="B308">
+        <v>33.9</v>
+      </c>
+      <c r="C308">
+        <v>50.01</v>
+      </c>
+      <c r="D308">
+        <v>643</v>
+      </c>
+      <c r="E308">
+        <v>31</v>
+      </c>
+      <c r="F308">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>2023-10-17 05:24:19</v>
+      </c>
+      <c r="B309">
+        <v>33.9</v>
+      </c>
+      <c r="C309">
+        <v>49.93</v>
+      </c>
+      <c r="D309">
+        <v>643</v>
+      </c>
+      <c r="E309">
+        <v>30.9</v>
+      </c>
+      <c r="F309">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>2023-10-17 06:24:18</v>
+      </c>
+      <c r="B310">
+        <v>33.9</v>
+      </c>
+      <c r="C310">
+        <v>53.37</v>
+      </c>
+      <c r="D310">
+        <v>642</v>
+      </c>
+      <c r="E310">
         <v>31.2</v>
       </c>
-      <c r="F261">
+      <c r="F310">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>2023-10-17 06:30:12</v>
+      </c>
+      <c r="B311">
+        <v>33.9</v>
+      </c>
+      <c r="C311">
+        <v>53.37</v>
+      </c>
+      <c r="D311">
+        <v>642</v>
+      </c>
+      <c r="E311">
+        <v>31.3</v>
+      </c>
+      <c r="F311">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>2023-10-17 07:31:01</v>
+      </c>
+      <c r="B312">
+        <v>33.9</v>
+      </c>
+      <c r="C312">
+        <v>53.37</v>
+      </c>
+      <c r="D312">
+        <v>640</v>
+      </c>
+      <c r="E312">
+        <v>31.3</v>
+      </c>
+      <c r="F312">
         <v>38</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>2023-10-17 08:35:27</v>
+      </c>
+      <c r="B313">
+        <v>33.9</v>
+      </c>
+      <c r="C313">
+        <v>53.37</v>
+      </c>
+      <c r="D313">
+        <v>636</v>
+      </c>
+      <c r="E313">
+        <v>31.3</v>
+      </c>
+      <c r="F313">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>2023-10-17 08:41:58</v>
+      </c>
+      <c r="B314">
+        <v>33.9</v>
+      </c>
+      <c r="C314">
+        <v>53.37</v>
+      </c>
+      <c r="D314">
+        <v>636</v>
+      </c>
+      <c r="E314">
+        <v>31.3</v>
+      </c>
+      <c r="F314">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>2023-10-17 09:44:05</v>
+      </c>
+      <c r="B315">
+        <v>33.79</v>
+      </c>
+      <c r="C315">
+        <v>50.08</v>
+      </c>
+      <c r="D315">
+        <v>639</v>
+      </c>
+      <c r="E315">
+        <v>31.3</v>
+      </c>
+      <c r="F315">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>2023-10-17 10:45:12</v>
+      </c>
+      <c r="B316">
+        <v>33.6</v>
+      </c>
+      <c r="C316">
+        <v>50.08</v>
+      </c>
+      <c r="D316">
+        <v>641</v>
+      </c>
+      <c r="E316">
+        <v>31.3</v>
+      </c>
+      <c r="F316">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>2023-10-17 10:50:22</v>
+      </c>
+      <c r="B317">
+        <v>33.6</v>
+      </c>
+      <c r="C317">
+        <v>50.08</v>
+      </c>
+      <c r="D317">
+        <v>640</v>
+      </c>
+      <c r="E317">
+        <v>31.3</v>
+      </c>
+      <c r="F317">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>2023-10-17 11:53:29</v>
+      </c>
+      <c r="B318">
+        <v>33.4</v>
+      </c>
+      <c r="C318">
+        <v>53.37</v>
+      </c>
+      <c r="D318">
+        <v>643</v>
+      </c>
+      <c r="E318">
+        <v>31.3</v>
+      </c>
+      <c r="F318">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>2023-10-17 12:51:10</v>
+      </c>
+      <c r="B319">
+        <v>33.29</v>
+      </c>
+      <c r="C319">
+        <v>53.37</v>
+      </c>
+      <c r="D319">
+        <v>643</v>
+      </c>
+      <c r="E319">
+        <v>31.3</v>
+      </c>
+      <c r="F319">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>2023-10-17 13:55:19</v>
+      </c>
+      <c r="B320">
+        <v>33</v>
+      </c>
+      <c r="C320">
+        <v>53.37</v>
+      </c>
+      <c r="D320">
+        <v>644</v>
+      </c>
+      <c r="E320">
+        <v>31.3</v>
+      </c>
+      <c r="F320">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>2023-10-17 14:52:38</v>
+      </c>
+      <c r="B321">
+        <v>33</v>
+      </c>
+      <c r="C321">
+        <v>49.72</v>
+      </c>
+      <c r="D321">
+        <v>643</v>
+      </c>
+      <c r="E321">
+        <v>31.3</v>
+      </c>
+      <c r="F321">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>2023-10-17 15:56:13</v>
+      </c>
+      <c r="B322">
+        <v>32.88</v>
+      </c>
+      <c r="C322">
+        <v>49.72</v>
+      </c>
+      <c r="D322">
+        <v>644</v>
+      </c>
+      <c r="E322">
+        <v>31.3</v>
+      </c>
+      <c r="F322">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>2023-10-17 17:02:02</v>
+      </c>
+      <c r="B323">
+        <v>31.9</v>
+      </c>
+      <c r="C323">
+        <v>49.72</v>
+      </c>
+      <c r="D323">
+        <v>648</v>
+      </c>
+      <c r="E323">
+        <v>31.3</v>
+      </c>
+      <c r="F323">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>2023-10-17 18:03:59</v>
+      </c>
+      <c r="B324">
+        <v>31.7</v>
+      </c>
+      <c r="C324">
+        <v>49.72</v>
+      </c>
+      <c r="D324">
+        <v>647</v>
+      </c>
+      <c r="E324">
+        <v>31.3</v>
+      </c>
+      <c r="F324">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5509,7 +6769,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F261"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F324"/>
   </ignoredErrors>
 </worksheet>
 </file>